--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.231</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.234</v>
+        <v>27.394</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.429</v>
+        <v>-0.322</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.25</v>
+        <v>32.339</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.367</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.053</v>
+        <v>26.992</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.33536062330476</v>
+        <v>25.14535667990972</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.24935709564743</v>
+        <v>25.14535670258553</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.62752287652644</v>
+        <v>25.14535670970506</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.74398714167489</v>
+        <v>25.14535668499401</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.91173756406443</v>
+        <v>25.14535671006306</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.75317834433486</v>
+        <v>25.14535671793399</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.59595831739194</v>
+        <v>25.14535669277888</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.10772377119683</v>
+        <v>25.14535671471905</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.34168724126832</v>
+        <v>25.14535672160761</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.78744977184284</v>
+        <v>25.1453567092953</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40.5807304994305</v>
+        <v>25.14535673374012</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>45.23655089403631</v>
+        <v>25.14535674126855</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.97894919726034</v>
+        <v>25.14535670362416</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39.13905474656649</v>
+        <v>25.14535673813156</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>45.81325163592595</v>
+        <v>25.14535674896585</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.25769284618173</v>
+        <v>25.1453567163285</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.64003249631183</v>
+        <v>25.1453567405115</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.27509525518788</v>
+        <v>25.14535674810881</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19.77652649232385</v>
+        <v>25.14535672177292</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34.56768818841688</v>
+        <v>25.14535674850824</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.69304463971682</v>
+        <v>25.14535675690738</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.4226488616217</v>
+        <v>25.14535673077753</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>39.35419903466543</v>
+        <v>25.14535675417601</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43.83638529730381</v>
+        <v>25.14535676152685</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.72256259781663</v>
+        <v>25.14535674756631</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>48.14413430731793</v>
+        <v>25.1453567737354</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53.10121521198795</v>
+        <v>25.14535678175278</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.40814307742994</v>
+        <v>25.14535674031936</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>46.80560345516256</v>
+        <v>25.14535677712037</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.87151218056043</v>
+        <v>25.14535678868174</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.61160238061647</v>
+        <v>25.14535676139769</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.19442841676999</v>
+        <v>25.14535678484027</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.86852022235911</v>
+        <v>25.1453567921299</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24.95272342025341</v>
+        <v>25.14535676772848</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.96561819965302</v>
+        <v>25.14535679364522</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.13435623209665</v>
+        <v>25.14535680170421</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.81850374824104</v>
+        <v>25.14535677718404</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.94437294712618</v>
+        <v>25.14535679986611</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49.46437186000819</v>
+        <v>25.14535680691926</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.52269178226904</v>
+        <v>25.14535679272007</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>54.31153048461424</v>
+        <v>25.14535681804127</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.29404122586431</v>
+        <v>25.1453568256686</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.27087082194633</v>
+        <v>25.14535678411673</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>52.97312587481305</v>
+        <v>25.14535681979098</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>60.09904916067167</v>
+        <v>25.14535683088414</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>17.48883084041406</v>
+        <v>25.14535666695583</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.58757684493589</v>
+        <v>25.14535668989</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.71883806419692</v>
+        <v>25.14535669700573</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.77872926895425</v>
+        <v>25.14535667138658</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.15101007375127</v>
+        <v>25.14535669674126</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.71943112093396</v>
+        <v>25.14535670460799</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.71640941376328</v>
+        <v>25.14535667908225</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.40703049787454</v>
+        <v>25.14535670127241</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.40214556413103</v>
+        <v>25.14535670815729</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.6745199818657</v>
+        <v>25.14535669570843</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.56252642357289</v>
+        <v>25.14535672034726</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.94465633315416</v>
+        <v>25.1453567278788</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.40253141097438</v>
+        <v>25.14535669016395</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37.84453504485259</v>
+        <v>25.14535672506452</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.14264032135261</v>
+        <v>25.14535673589305</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>22.50635651500154</v>
+        <v>25.14535670313328</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.07935080947256</v>
+        <v>25.14535672759361</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.45700844677722</v>
+        <v>25.14535673518355</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>18.88977468309836</v>
+        <v>25.14535670792156</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.89200846085386</v>
+        <v>25.14535673496347</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.73271122101485</v>
+        <v>25.14535674335446</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.64255703790982</v>
+        <v>25.1453567168662</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.75867467586654</v>
+        <v>25.14535674053301</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.99184601614758</v>
+        <v>25.14535674787672</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.67436513174287</v>
+        <v>25.14535673380189</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47.1941974105605</v>
+        <v>25.14535676017605</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>51.86166241787774</v>
+        <v>25.14535676818977</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.86604517856008</v>
+        <v>25.14535672669783</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>45.5544522063506</v>
+        <v>25.14535676392087</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>52.22820520501274</v>
+        <v>25.14535677547103</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.94160029242298</v>
+        <v>25.1453567503259</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.75979723482081</v>
+        <v>25.1453567740785</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.15694480840996</v>
+        <v>25.14535678133683</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.13441108547871</v>
+        <v>25.14535675609643</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.40779392314958</v>
+        <v>25.14535678235591</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.27029143744512</v>
+        <v>25.1453567903803</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.14410619376566</v>
+        <v>25.14535676555184</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.49777555670918</v>
+        <v>25.14535678853387</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.74987351191695</v>
+        <v>25.14535679555674</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>40.60111840626741</v>
+        <v>25.14535678123637</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>54.53264339028263</v>
+        <v>25.14535680679669</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>59.20795955253512</v>
+        <v>25.14535681439627</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.8341125143834</v>
+        <v>25.14535677271867</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>52.89541590829486</v>
+        <v>25.1453568088647</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>59.59942460641238</v>
+        <v>25.14535681991023</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.48883084041406</v>
+        <v>25.14535666695583</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.58757684493589</v>
+        <v>25.14535668989</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.71883806419692</v>
+        <v>25.14535669700573</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14.77872926895425</v>
+        <v>25.14535667138658</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.15101007375127</v>
+        <v>25.14535669674126</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.71943112093396</v>
+        <v>25.14535670460799</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.71640941376328</v>
+        <v>25.14535667908225</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.40703049787454</v>
+        <v>25.14535670127241</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.40214556413103</v>
+        <v>25.14535670815729</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.6745199818657</v>
+        <v>25.14535669570843</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.56252642357289</v>
+        <v>25.14535672034726</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.94465633315416</v>
+        <v>25.1453567278788</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.40253141097438</v>
+        <v>25.14535669016395</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.84453504485259</v>
+        <v>25.14535672506452</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44.14264032135261</v>
+        <v>25.14535673589305</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.50635651500154</v>
+        <v>25.14535670313328</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.07935080947256</v>
+        <v>25.14535672759361</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.45700844677722</v>
+        <v>25.14535673518355</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>18.88977468309836</v>
+        <v>25.14535670792156</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.89200846085386</v>
+        <v>25.14535673496347</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.73271122101485</v>
+        <v>25.14535674335446</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.64255703790982</v>
+        <v>25.1453567168662</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>38.75867467586654</v>
+        <v>25.14535674053301</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.99184601614758</v>
+        <v>25.14535674787672</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.67436513174287</v>
+        <v>25.14535673380189</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.1941974105605</v>
+        <v>25.14535676017605</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.86166241787774</v>
+        <v>25.14535676818977</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.86604517856008</v>
+        <v>25.14535672669783</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>45.5544522063506</v>
+        <v>25.14535676392087</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>52.22820520501274</v>
+        <v>25.14535677547103</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.94160029242298</v>
+        <v>25.1453567503259</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.75979723482081</v>
+        <v>25.1453567740785</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.15694480840996</v>
+        <v>25.14535678133683</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.13441108547871</v>
+        <v>25.14535675609643</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.40779392314958</v>
+        <v>25.14535678235591</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.27029143744512</v>
+        <v>25.1453567903803</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>32.14410619376566</v>
+        <v>25.14535676555184</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.49777555670918</v>
+        <v>25.14535678853387</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>49.74987351191695</v>
+        <v>25.14535679555674</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.60111840626741</v>
+        <v>25.14535678123637</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54.53264339028263</v>
+        <v>25.14535680679669</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.20795955253512</v>
+        <v>25.14535681439627</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.8341125143834</v>
+        <v>25.14535677271867</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.89541590829486</v>
+        <v>25.1453568088647</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.59942460641238</v>
+        <v>25.14535681991023</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.20704081146703</v>
+        <v>25.14535667404215</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>27.11889591172149</v>
+        <v>25.14535669683591</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.48744631168091</v>
+        <v>25.14535670399276</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>12.33267168445988</v>
+        <v>25.14535667881663</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.49805376372309</v>
+        <v>25.14535670401608</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.32884880660493</v>
+        <v>25.14535671192827</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>18.15582893334281</v>
+        <v>25.14535668656323</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.66549415353145</v>
+        <v>25.14535670861754</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.89014041543784</v>
+        <v>25.14535671554221</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.38706607371504</v>
+        <v>25.1453567032638</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.16377031221352</v>
+        <v>25.14535672783398</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.81559785307499</v>
+        <v>25.14535673540484</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.64493101656171</v>
+        <v>25.14535669775485</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>35.80183331942118</v>
+        <v>25.14535673244177</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>42.46136836227599</v>
+        <v>25.14535674333285</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.24986428516277</v>
+        <v>25.14535671074871</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.63832870819884</v>
+        <v>25.14535673506066</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.26500263692277</v>
+        <v>25.14535674269876</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16.46746382844606</v>
+        <v>25.1453567158825</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.26539470902763</v>
+        <v>25.14535674276037</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.3814608115128</v>
+        <v>25.14535675120461</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>36.03170881401665</v>
+        <v>25.14535674838434</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>40.50576291728076</v>
+        <v>25.14535675577465</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.43692302274022</v>
+        <v>25.14535674183661</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.85011261325549</v>
+        <v>25.14535676814251</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>49.80407996937663</v>
+        <v>25.14535677620562</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>23.18057431082913</v>
+        <v>25.14535673473859</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43.58743134312944</v>
+        <v>25.14535677173584</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.64054573958799</v>
+        <v>25.14535678335929</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.15957899243615</v>
+        <v>25.14535675690511</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>38.75939448216299</v>
+        <v>25.145356780479</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.42389387304463</v>
+        <v>25.14535678780756</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>22.21205578478352</v>
+        <v>25.14535676296813</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>37.2437291996992</v>
+        <v>25.14535678903004</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>42.40184821389192</v>
+        <v>25.14535679713207</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.07526608440015</v>
+        <v>25.14535677241837</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.21752864435559</v>
+        <v>25.14535679522749</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.72823263773466</v>
+        <v>25.14535680231831</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.82122607547096</v>
+        <v>25.14535678812482</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.61264319269756</v>
+        <v>25.14535681358496</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>56.59008716580487</v>
+        <v>25.14535682125528</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.60638093842551</v>
+        <v>25.14535677963264</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50.33458796357135</v>
+        <v>25.14535681550671</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>57.44588374384954</v>
+        <v>25.14535682665911</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>19.38618432750928</v>
+        <v>25.14535668118473</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.34408339366318</v>
+        <v>25.14535670385241</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.67688930407427</v>
+        <v>25.14535671093696</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.84364091326199</v>
+        <v>25.14535668632372</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.05997509896152</v>
+        <v>25.14535671138378</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.85127007312444</v>
+        <v>25.14535671921603</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.70884273287772</v>
+        <v>25.14535669410612</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.26309029731796</v>
+        <v>25.14535671603843</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.45319306571843</v>
+        <v>25.14535672289314</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.8595555665529</v>
+        <v>25.14535671052159</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.70246213862326</v>
+        <v>25.14535673494908</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.30883672528795</v>
+        <v>25.14535674243867</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.99535005270586</v>
+        <v>25.14535670477724</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>40.22246004741453</v>
+        <v>25.14535673927228</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>46.82753045146507</v>
+        <v>25.14535675005333</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.66370542259828</v>
+        <v>25.14535671773351</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>38.0851415137173</v>
+        <v>25.14535674190618</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>42.67042615581561</v>
+        <v>25.14535674946578</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>21.23093158231514</v>
+        <v>25.1453567232393</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>36.06536521692738</v>
+        <v>25.14535674996318</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.13568570521261</v>
+        <v>25.14535675832063</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40.86884207798387</v>
+        <v>25.14535675563413</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>45.30289240347457</v>
+        <v>25.14535676294848</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.15509218710479</v>
+        <v>25.14535674893651</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>49.61926231507464</v>
+        <v>25.14535677508511</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>54.522522236735</v>
+        <v>25.14535678306099</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.77515044876104</v>
+        <v>25.14535674161397</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.2323020543919</v>
+        <v>25.14535677839925</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>55.22233614523554</v>
+        <v>25.14535678990323</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.01727963477885</v>
+        <v>25.1453567626516</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.63152956890538</v>
+        <v>25.1453567860814</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.25797270153888</v>
+        <v>25.14535679333813</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.38295557764746</v>
+        <v>25.1453567690331</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.43063885382377</v>
+        <v>25.14535679493572</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>46.54668972630398</v>
+        <v>25.14535680295833</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.27471127158073</v>
+        <v>25.14535677849087</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>46.43099623571153</v>
+        <v>25.14535680116059</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>50.90491307330568</v>
+        <v>25.1453568081819</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.93034598472293</v>
+        <v>25.14535679393728</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>55.75248334575545</v>
+        <v>25.14535681923712</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>60.68404351793997</v>
+        <v>25.14535682682841</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.6139600687751</v>
+        <v>25.14535678526779</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>54.36421038647511</v>
+        <v>25.14535682092261</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>61.41749456851041</v>
+        <v>25.14535683196569</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>18.68332326190256</v>
+        <v>25.14535667374465</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>30.79183803057088</v>
+        <v>25.14535669658055</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>34.95962895681524</v>
+        <v>25.14535670365558</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.10128033744525</v>
+        <v>25.14535667855872</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.48423095750283</v>
+        <v>25.14535670380475</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.09310577397989</v>
+        <v>25.1453567116265</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.02656611107087</v>
+        <v>25.14535668628315</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.72650866921597</v>
+        <v>25.14535670837822</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>37.7570262880494</v>
+        <v>25.14535671522374</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.03802316686517</v>
+        <v>25.14535670270894</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>40.97372870062037</v>
+        <v>25.14535672725833</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>45.4025692651492</v>
+        <v>25.14535673473799</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>20.8484980752717</v>
+        <v>25.14535669697375</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>39.30533272341034</v>
+        <v>25.14535673172477</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.65907265594927</v>
+        <v>25.14535674249136</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>24.46602559158911</v>
+        <v>25.14535671041619</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.05041134383575</v>
+        <v>25.14535673477621</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.4556527737504</v>
+        <v>25.14535674231911</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>20.98930554019833</v>
+        <v>25.14535671560673</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.0039991855147</v>
+        <v>25.14535674253775</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>40.87526610362834</v>
+        <v>25.14535675087673</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.74742340332838</v>
+        <v>25.14535672458231</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>40.87443118628605</v>
+        <v>25.14535674815207</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>45.1343544197595</v>
+        <v>25.14535675545027</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>35.84135784151727</v>
+        <v>25.14535674131372</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>49.41037553199477</v>
+        <v>25.14535676759657</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>54.1162732616874</v>
+        <v>25.14535677555299</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.10363981032665</v>
+        <v>25.14535673400472</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>47.80933646767754</v>
+        <v>25.14535677107511</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>54.5250957230038</v>
+        <v>25.14535678255368</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.62761069503498</v>
+        <v>25.14535675669834</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.92913325653718</v>
+        <v>25.14535676281728</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>42.1917011478229</v>
+        <v>25.14535678895372</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>47.09021942390584</v>
+        <v>25.14535679693947</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.93754599143983</v>
+        <v>25.14535677228604</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.28174751009151</v>
+        <v>25.14535679516038</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>51.56537012075627</v>
+        <v>25.14535680214943</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>42.43397942181871</v>
+        <v>25.14535678777667</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>56.39194441934079</v>
+        <v>25.14535681323575</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>61.10982463185317</v>
+        <v>25.14535682079174</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.73902042509702</v>
+        <v>25.1453567790866</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>54.78552406143849</v>
+        <v>25.14535681506326</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>61.5390613656906</v>
+        <v>25.1453568260556</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16.31793484013617</v>
+        <v>25.14535667084652</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.32797618553639</v>
+        <v>25.14535669370089</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.59983307831331</v>
+        <v>25.14535670085544</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>13.62682586627458</v>
+        <v>25.14535667553627</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>26.90080095381371</v>
+        <v>25.14535670080272</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.62472207915194</v>
+        <v>25.14535670871237</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>19.52266535006395</v>
+        <v>25.14535668326629</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>31.12731862292043</v>
+        <v>25.14535670537923</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.25846310516562</v>
+        <v>25.14535671230167</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.62680215951943</v>
+        <v>25.14535669992154</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>38.45105634680752</v>
+        <v>25.14535672451034</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.99331809297688</v>
+        <v>25.14535673207828</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.5621384703649</v>
+        <v>25.14535669435276</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.86867854471942</v>
+        <v>25.1453567291319</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>43.3810106448297</v>
+        <v>25.14535674001948</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>21.28980641174719</v>
+        <v>25.14535670722255</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>34.78680632586631</v>
+        <v>25.14535673160606</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.30623226701272</v>
+        <v>25.14535673923469</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.70502170018189</v>
+        <v>25.14535671227362</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.62299406947756</v>
+        <v>25.14535673923061</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.62050650642013</v>
+        <v>25.14535674766438</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>24.41279601465922</v>
+        <v>25.14535672124523</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.45523634896941</v>
+        <v>25.14535674483772</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.82557742031746</v>
+        <v>25.14535675221886</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32.60752692435828</v>
+        <v>25.1453567381992</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>46.08125207745728</v>
+        <v>25.14535676452865</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>50.91060299192293</v>
+        <v>25.14535677257938</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.0170368290901</v>
+        <v>25.14535673106203</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.5893105804383</v>
+        <v>25.14535676816818</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.47911622694838</v>
+        <v>25.14535677977721</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.44750736114268</v>
+        <v>25.14535675384817</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>40.18603352518215</v>
+        <v>25.1453567775185</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>44.72503951216764</v>
+        <v>25.14535678481667</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.69513861934478</v>
+        <v>25.14535675985184</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>38.88021380892615</v>
+        <v>25.14535678602038</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>43.89961874832719</v>
+        <v>25.14535679408881</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.64500511058361</v>
+        <v>25.14535676931556</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.92145445941804</v>
+        <v>25.145356792218</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>48.31080898424655</v>
+        <v>25.14535679927941</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.25204421568839</v>
+        <v>25.14535678500993</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>53.13580524206321</v>
+        <v>25.14535681051755</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>57.97057926374238</v>
+        <v>25.14535681815545</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>30.70226332926445</v>
+        <v>25.14535677647019</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>51.64185423678126</v>
+        <v>25.14535681249103</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>58.56205593427933</v>
+        <v>25.14535682359719</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>18.0942399613876</v>
+        <v>25.14535667712251</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>30.23639653008917</v>
+        <v>25.14535670016724</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.61022954629846</v>
+        <v>25.14535670736531</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>15.42163167238963</v>
+        <v>25.1453566821619</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.84163459097737</v>
+        <v>25.1453567076388</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>33.67829900599622</v>
+        <v>25.14535671559657</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>21.36342152388865</v>
+        <v>25.14535669003218</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>33.09572122177767</v>
+        <v>25.14535671232931</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37.32549068879486</v>
+        <v>25.14535671929386</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.61253203090565</v>
+        <v>25.14535670675052</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>40.62519411771292</v>
+        <v>25.14535673157599</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>45.27593264900973</v>
+        <v>25.14535673918723</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.62225947041353</v>
+        <v>25.14535670099511</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.13025596176864</v>
+        <v>25.14535673606392</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.79790067880695</v>
+        <v>25.14535674701775</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>23.4921429736655</v>
+        <v>25.14535671425612</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.12241649844781</v>
+        <v>25.14535673883317</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.75174777450493</v>
+        <v>25.14535674651364</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.91171045235316</v>
+        <v>25.14535671966807</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.97698921589725</v>
+        <v>25.14535674683901</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.09601325478866</v>
+        <v>25.14535675533009</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.67295650494637</v>
+        <v>25.14535672878641</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>39.8441597635011</v>
+        <v>25.14535675256615</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>44.32079228838661</v>
+        <v>25.14535675999745</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.04062098972767</v>
+        <v>25.14535674578916</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>48.70135930253011</v>
+        <v>25.14535677236543</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>53.65202776908281</v>
+        <v>25.14535678047013</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.52225967024289</v>
+        <v>25.14535673843093</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>47.29775600526298</v>
+        <v>25.14535677583159</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>54.3549626179601</v>
+        <v>25.14535678751951</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.19205073176096</v>
+        <v>25.14535676036484</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>42.02601644840917</v>
+        <v>25.1453567841933</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>46.69439352376453</v>
+        <v>25.1453567915633</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.42522181423364</v>
+        <v>25.14535676668844</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>40.715776543952</v>
+        <v>25.14535679303179</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>45.8782004078826</v>
+        <v>25.14535680117962</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>32.42138255615957</v>
+        <v>25.14535677627671</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>45.79001144558457</v>
+        <v>25.14535679933215</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>50.30446961386839</v>
+        <v>25.14535680646306</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.19609370151746</v>
+        <v>25.14535679201243</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>55.22820231674913</v>
+        <v>25.1453568177328</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>60.20481074992121</v>
+        <v>25.14535682544382</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.73339343297869</v>
+        <v>25.14535678327051</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>53.81855237066254</v>
+        <v>25.14535681953199</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>60.93579890097232</v>
+        <v>25.14535683074744</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>22.17530916080155</v>
+        <v>25.14535667984582</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.25863905391868</v>
+        <v>25.14535670250419</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.40443894320361</v>
+        <v>25.14535670952803</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.00379732056176</v>
+        <v>25.14535668503927</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>33.35891136720389</v>
+        <v>25.14535671008904</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>37.94349971012998</v>
+        <v>25.14535671785418</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.95569775355733</v>
+        <v>25.14535669278499</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>37.63134428521746</v>
+        <v>25.14535671470829</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.64062396543696</v>
+        <v>25.14535672150427</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>32.9016412892826</v>
+        <v>25.14535670900264</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>44.81462816131039</v>
+        <v>25.1453567333565</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>49.21532499604933</v>
+        <v>25.14535674077753</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.62411050570056</v>
+        <v>25.14535670311695</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>43.04247549164707</v>
+        <v>25.14535673759782</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.36273518315818</v>
+        <v>25.1453567482865</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.35701928234086</v>
+        <v>25.14535671576981</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>40.90547311424832</v>
+        <v>25.14535673993649</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>45.28264590631062</v>
+        <v>25.14535674742161</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.30286254405488</v>
+        <v>25.1453567213219</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.27784156396444</v>
+        <v>25.14535674803916</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>44.11810470775148</v>
+        <v>25.14535675631426</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.06837184294442</v>
+        <v>25.14535673029944</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>44.16069935683321</v>
+        <v>25.14535675368211</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>48.39350969680785</v>
+        <v>25.1453567609244</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>39.08967734919601</v>
+        <v>25.14535674682271</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>52.62657595696896</v>
+        <v>25.1453567728919</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>57.29668079543825</v>
+        <v>25.14535678078272</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.28545790045976</v>
+        <v>25.14535673939385</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>50.93630098240817</v>
+        <v>25.14535677617001</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.60932365865624</v>
+        <v>25.14535678756065</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.93437600908401</v>
+        <v>25.14535676082801</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>45.70339461684313</v>
+        <v>25.145356784281</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>50.1003433333466</v>
+        <v>25.14535679144305</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.63925997477509</v>
+        <v>25.14535676726033</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>44.85816927638427</v>
+        <v>25.14535679318859</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.72052920115102</v>
+        <v>25.14535680110653</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.63628178603888</v>
+        <v>25.14535677671221</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>49.94235190210721</v>
+        <v>25.14535679940436</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>54.19435431318297</v>
+        <v>25.14535680633406</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.0575409351445</v>
+        <v>25.14535679201296</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>58.97991657546092</v>
+        <v>25.14535681726232</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>63.65736043450411</v>
+        <v>25.14535682475065</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.3154432690619</v>
+        <v>25.14535678324258</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>57.30165685635501</v>
+        <v>25.14535681893268</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>64.0053548095384</v>
+        <v>25.14535682983169</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>11.38609030158039</v>
+        <v>25.14535666017109</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.82368990084742</v>
+        <v>25.14535668216301</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.88573514047483</v>
+        <v>25.1453566890597</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.334273345167793</v>
+        <v>25.14535666379422</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>20.97574687092819</v>
+        <v>25.1453566881072</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.46753925782386</v>
+        <v>25.14535669573178</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.91894140576713</v>
+        <v>25.14535667109118</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.97062518063738</v>
+        <v>25.14535669236965</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.89873610347123</v>
+        <v>25.14535669904261</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.67195774961499</v>
+        <v>25.14535668734256</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.89197607064265</v>
+        <v>25.14535671099053</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.19949591845835</v>
+        <v>25.14535671830278</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>13.0005307394915</v>
+        <v>25.14535668242203</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.43463064844134</v>
+        <v>25.14535671588871</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.62713929320665</v>
+        <v>25.1453567263839</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.62109612092047</v>
+        <v>25.14535669472934</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.47495279596481</v>
+        <v>25.14535671818851</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.79475079758404</v>
+        <v>25.14535672555239</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>11.69561989083637</v>
+        <v>25.14535669869009</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.90292508338821</v>
+        <v>25.14535672462517</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.67956888733298</v>
+        <v>25.14535673276626</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>18.04184766921329</v>
+        <v>25.1453567071781</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.46294960997573</v>
+        <v>25.14535672987623</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.64011170703023</v>
+        <v>25.14535673700122</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.82901362717943</v>
+        <v>25.1453567237173</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>38.61767532583678</v>
+        <v>25.14535674903657</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>43.2227959889636</v>
+        <v>25.14535675682415</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>17.65841982771812</v>
+        <v>25.14535671729873</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>37.25055120489609</v>
+        <v>25.14535675299823</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>43.83602795402332</v>
+        <v>25.14535676420438</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.26123176962907</v>
+        <v>25.14535674107901</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>34.3675531706367</v>
+        <v>25.14535676386625</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.70708492836678</v>
+        <v>25.14535677090716</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.18136389035869</v>
+        <v>25.14535674605108</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>32.66783592176161</v>
+        <v>25.14535677124333</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>37.46654600772162</v>
+        <v>25.14535677902734</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>24.78001514685993</v>
+        <v>25.14535675503887</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.4456602152275</v>
+        <v>25.14535677708687</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>41.64199424987028</v>
+        <v>25.14535678389936</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.99772109310149</v>
+        <v>25.14535677035679</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>46.20119585196768</v>
+        <v>25.14535679490167</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>50.81478202542735</v>
+        <v>25.14535680228407</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.85673200998356</v>
+        <v>25.14535676253801</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>44.83286356671523</v>
+        <v>25.14535679721501</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>51.44896031970895</v>
+        <v>25.14535680792966</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>14.60045200920794</v>
+        <v>25.1453566631864</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.35090201723116</v>
+        <v>25.14535668557746</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.36900815452788</v>
+        <v>25.1453566925231</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>11.63487015180191</v>
+        <v>25.14535666712815</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.62221193603975</v>
+        <v>25.1453566918824</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.06547056511067</v>
+        <v>25.14535669956109</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>17.37360302272927</v>
+        <v>25.14535667456895</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.72766352555886</v>
+        <v>25.14535669623362</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.61331907197081</v>
+        <v>25.14535670295393</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.16347910238588</v>
+        <v>25.14535669088265</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>35.70224306059438</v>
+        <v>25.14535671493947</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>39.96695102367718</v>
+        <v>25.14535672229574</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.1978423786788</v>
+        <v>25.14535668565287</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.10901384725241</v>
+        <v>25.14535671972695</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>40.23458618314679</v>
+        <v>25.14535673029663</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>19.82559660143648</v>
+        <v>25.1453566987816</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.01373795156379</v>
+        <v>25.1453567226652</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.27684485416981</v>
+        <v>25.14535673007673</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.96994261756008</v>
+        <v>25.14535670308133</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.54681684244859</v>
+        <v>25.14535672948563</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.26081640588299</v>
+        <v>25.14535673767939</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>22.51148456302469</v>
+        <v>25.14535671174805</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.25568779440146</v>
+        <v>25.14535673485683</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.37805469925907</v>
+        <v>25.14535674202792</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.34684147797773</v>
+        <v>25.14535672836242</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>43.47504781405254</v>
+        <v>25.14535675411636</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.02366082646953</v>
+        <v>25.14535676194644</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.84601315993801</v>
+        <v>25.14535672159837</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.94789231511515</v>
+        <v>25.14535675794375</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.44697571554831</v>
+        <v>25.14535676922241</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.58870354626266</v>
+        <v>25.14535674563552</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.02035595063185</v>
+        <v>25.1453567688305</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.30533280578834</v>
+        <v>25.14535677592156</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.53731746534386</v>
+        <v>25.14535675093336</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.38346327638753</v>
+        <v>25.14535677657639</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>42.12188333312692</v>
+        <v>25.14535678441585</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.34359707587838</v>
+        <v>25.1453567601127</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.32369933176201</v>
+        <v>25.14535678255522</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.46729267001878</v>
+        <v>25.14535678941624</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>37.59665447937635</v>
+        <v>25.14535677549808</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>51.12997329230046</v>
+        <v>25.14535680046124</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>55.68927104367053</v>
+        <v>25.14535680788941</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.12069798454225</v>
+        <v>25.14535676732749</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.5929127509464</v>
+        <v>25.14535680262497</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>56.12586273780758</v>
+        <v>25.14535681341594</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>12.03068670228447</v>
+        <v>25.14535666013557</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.55894275742779</v>
+        <v>25.14535668225419</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.54953536366597</v>
+        <v>25.14535668915678</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>9.00405963317445</v>
+        <v>25.14535666388248</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>21.74573373416347</v>
+        <v>25.14535668833553</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.15856688323265</v>
+        <v>25.14535669596663</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.63720817686408</v>
+        <v>25.14535667119776</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.77647961979174</v>
+        <v>25.14535669259882</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.63552880291671</v>
+        <v>25.14535669927748</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.39246001762091</v>
+        <v>25.1453566874793</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.68914584195763</v>
+        <v>25.14535671124792</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.9311836779784</v>
+        <v>25.14535671856026</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.61388521029823</v>
+        <v>25.14535668248086</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.18627549515352</v>
+        <v>25.14535671614034</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.2699093243655</v>
+        <v>25.14535672664451</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>16.52497307787551</v>
+        <v>25.14535669494026</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.48143406129817</v>
+        <v>25.14535671853702</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.71477986927348</v>
+        <v>25.14535672590124</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.60724894690281</v>
+        <v>25.14535669901941</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.92796560232004</v>
+        <v>25.1453567251066</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>31.60906338420108</v>
+        <v>25.14535673324806</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>19.02162026851351</v>
+        <v>25.14535670754119</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>31.54186341311342</v>
+        <v>25.14535673037244</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.63545668544124</v>
+        <v>25.14535673749777</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.81141079629364</v>
+        <v>25.14535672411982</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>39.68985084343539</v>
+        <v>25.14535674956824</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>44.21117539991536</v>
+        <v>25.1453567573494</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.52045973224356</v>
+        <v>25.14535671761592</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.26908841675407</v>
+        <v>25.1453567535248</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>44.72282622772597</v>
+        <v>25.14535676473148</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>22.48549257189038</v>
+        <v>25.14535674177144</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>35.70253932291077</v>
+        <v>25.14535676469852</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.94936274895178</v>
+        <v>25.14535677173571</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.38926660191375</v>
+        <v>25.14535674686307</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.9981342911329</v>
+        <v>25.1453567722099</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.69437956683638</v>
+        <v>25.14535677998981</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.06782242069722</v>
+        <v>25.14535675590187</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>38.84047063773005</v>
+        <v>25.14535677808516</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.94718197616169</v>
+        <v>25.14535678489406</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.26974630418735</v>
+        <v>25.14535677125167</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>47.57038118103637</v>
+        <v>25.14535679592657</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>52.09221188274395</v>
+        <v>25.14535680329973</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.989159690493</v>
+        <v>25.14535676333214</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>46.13416131278075</v>
+        <v>25.14535679822191</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>52.60898341469974</v>
+        <v>25.14535680893092</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>8.506931276028084</v>
+        <v>25.14535665558746</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.62109201932826</v>
+        <v>25.14535667706985</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>23.48223486211118</v>
+        <v>25.14535668377801</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.187750935778451</v>
+        <v>25.14535665876729</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.47175298296957</v>
+        <v>25.14535668251697</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.74140086268453</v>
+        <v>25.14535668993312</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.58683109172217</v>
+        <v>25.14535666578427</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.32595029632122</v>
+        <v>25.14535668656975</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.0597784562366</v>
+        <v>25.14535669306029</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.15056106417003</v>
+        <v>25.14535668171399</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.02979678410529</v>
+        <v>25.14535670480124</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.13818366337139</v>
+        <v>25.14535671191329</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.735484830510872</v>
+        <v>25.14535667709258</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.67674333062153</v>
+        <v>25.14535670978388</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>32.56300051952299</v>
+        <v>25.14535671999217</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.14896877945283</v>
+        <v>25.14535668965317</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.6494681725064</v>
+        <v>25.14535671257459</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.75154730420424</v>
+        <v>25.14535671973464</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>8.956856910878265</v>
+        <v>25.1453566931628</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.77361041531263</v>
+        <v>25.14535671850338</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.30951765845058</v>
+        <v>25.14535672641912</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15.12098168435359</v>
+        <v>25.14535670135838</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.20058453518432</v>
+        <v>25.14535672353621</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>31.16720575868509</v>
+        <v>25.14535673046398</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.68650808010921</v>
+        <v>25.14535671757493</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>35.0993395807931</v>
+        <v>25.14535674229744</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>39.484883693241</v>
+        <v>25.1453567498684</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.76294530758459</v>
+        <v>25.14535671147956</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>33.81665565661525</v>
+        <v>25.14535674636073</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>40.07023914868246</v>
+        <v>25.1453567572567</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.49864863230873</v>
+        <v>25.14535673610438</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>32.25982329091519</v>
+        <v>25.14535675837959</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.37706792290768</v>
+        <v>25.14535676522427</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.12430190847431</v>
+        <v>25.14535674064581</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.22929750130082</v>
+        <v>25.14535676527198</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.78221275142912</v>
+        <v>25.14535677283905</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.56128815909799</v>
+        <v>25.14535674936097</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.8933631490443</v>
+        <v>25.14535677091355</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.87473358361719</v>
+        <v>25.14535677753618</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.52991638988364</v>
+        <v>25.1453567643734</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>43.35958003001148</v>
+        <v>25.14535678835005</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>47.74761959255888</v>
+        <v>25.14535679552595</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.59667776357728</v>
+        <v>25.14535675686928</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>42.04691843770985</v>
+        <v>25.14535679076707</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>48.32414129785235</v>
+        <v>25.14535680118311</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.72242004234179</v>
+        <v>25.14535667544928</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.80736616651987</v>
+        <v>25.14535669850467</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.24097364794461</v>
+        <v>25.14535670574865</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>13.98630931869649</v>
+        <v>25.14535668041688</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.34300101002138</v>
+        <v>25.14535670590558</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>32.24574680268199</v>
+        <v>25.14535671391409</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.91092213168907</v>
+        <v>25.14535668829039</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>31.58786187474465</v>
+        <v>25.14535671059784</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>35.87543032412091</v>
+        <v>25.14535671760681</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.21352126035982</v>
+        <v>25.14535670514121</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>39.16147482828477</v>
+        <v>25.14535672998943</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.87736672022373</v>
+        <v>25.14535673765164</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>19.29581761235264</v>
+        <v>25.14535669948188</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.71649804791534</v>
+        <v>25.14535673456693</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>44.47523650591358</v>
+        <v>25.14535674559061</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.65342701881394</v>
+        <v>25.14535671241227</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.23284115292232</v>
+        <v>25.14535673700288</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>39.92776389385787</v>
+        <v>25.14535674473285</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.0100684217916</v>
+        <v>25.1453567177437</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>33.01905525929452</v>
+        <v>25.14535674492964</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>38.21059896030246</v>
+        <v>25.14535675347544</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.74209195227714</v>
+        <v>25.14535672685974</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>37.86407680535299</v>
+        <v>25.14535675065261</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>42.40413701181461</v>
+        <v>25.1453567581318</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.16788228245521</v>
+        <v>25.14535674399099</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>46.77318320181482</v>
+        <v>25.14535677059416</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>51.79476877829325</v>
+        <v>25.14535677875332</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.73498185447903</v>
+        <v>25.14535673673197</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>45.43282624186632</v>
+        <v>25.14535677415327</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>52.59001105537081</v>
+        <v>25.14535678591651</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.35245059841552</v>
+        <v>25.1453567587193</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>40.14560689089923</v>
+        <v>25.14535678256452</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.87677709247956</v>
+        <v>25.1453567899777</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.55396140039046</v>
+        <v>25.14535676497634</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>38.79933635335452</v>
+        <v>25.14535679133822</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>44.03119325950058</v>
+        <v>25.1453567995338</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.51619041879022</v>
+        <v>25.14535677456171</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>43.84531842336825</v>
+        <v>25.14535679763336</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>48.42050524723741</v>
+        <v>25.14535680480605</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.35466058861292</v>
+        <v>25.14535679041505</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>53.34351601248012</v>
+        <v>25.14535681616344</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>58.38726648615454</v>
+        <v>25.14535682392176</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.97620134368103</v>
+        <v>25.14535678175993</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>51.99902847560705</v>
+        <v>25.14535681804691</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>59.21200130214361</v>
+        <v>25.14535682932808</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.84960729634883</v>
+        <v>25.14535666284939</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.4513553831484</v>
+        <v>25.145356685002</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.4583080992701</v>
+        <v>25.14535669190197</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>11.98360213674773</v>
+        <v>25.14535666669489</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.80660483616166</v>
+        <v>25.14535669118552</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.2374981806664</v>
+        <v>25.14535669881372</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.67162557087785</v>
+        <v>25.14535667406867</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.88203340866789</v>
+        <v>25.14535669550262</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.75687585713643</v>
+        <v>25.14535670217875</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.39296341021324</v>
+        <v>25.14535669029421</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>35.77682044624623</v>
+        <v>25.14535671409704</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>40.0241798759573</v>
+        <v>25.14535672140842</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>16.49504181441136</v>
+        <v>25.14535668518259</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.17946267435477</v>
+        <v>25.1453567188938</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>40.28803565300146</v>
+        <v>25.14535672939399</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>19.27002612851486</v>
+        <v>25.1453566975688</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.29209320099098</v>
+        <v>25.1453567211948</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.54973211228352</v>
+        <v>25.1453567285601</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.51989965301601</v>
+        <v>25.14535670175075</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.91322928427277</v>
+        <v>25.14535672787028</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.62115443549742</v>
+        <v>25.14535673601291</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>21.98134904905578</v>
+        <v>25.14535671032647</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.56510395494705</v>
+        <v>25.14535673318602</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.68216036075111</v>
+        <v>25.14535674031237</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.73742581885744</v>
+        <v>25.14535672684705</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.69306792757956</v>
+        <v>25.14535675232663</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.2299738598314</v>
+        <v>25.14535676011113</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>21.3300598622623</v>
+        <v>25.1453567202325</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.17871386666611</v>
+        <v>25.14535675618589</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.66946971959687</v>
+        <v>25.14535676739419</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>24.70812631200869</v>
+        <v>25.14535674386051</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>37.97700539470202</v>
+        <v>25.14535676680813</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.25499101240189</v>
+        <v>25.14535677385075</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.77422613529472</v>
+        <v>25.14535674903824</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.44047105495378</v>
+        <v>25.14535677440778</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.17113748425729</v>
+        <v>25.1453567821937</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.48846753902667</v>
+        <v>25.14535675811684</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.31130282155119</v>
+        <v>25.14535678032</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>45.44811890349282</v>
+        <v>25.14535678713416</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.67335273518016</v>
+        <v>25.14535677341927</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>50.03764667096503</v>
+        <v>25.14535679811821</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>54.58407277141049</v>
+        <v>25.14535680549861</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.30456214460816</v>
+        <v>25.14535676541255</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.52858931169002</v>
+        <v>25.14535680033359</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>55.05089666661192</v>
+        <v>25.14535681105086</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>20.97260086655569</v>
+        <v>25.14535668252408</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.16943111360661</v>
+        <v>25.14535670556527</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.56133346576235</v>
+        <v>25.14535671276299</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>18.56891453213299</v>
+        <v>25.14535668792424</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>32.04933824185163</v>
+        <v>25.14535671339723</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.90600435087904</v>
+        <v>25.14535672135462</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.56926138668112</v>
+        <v>25.14535669586538</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.35440932517341</v>
+        <v>25.14535671815908</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.60167579805898</v>
+        <v>25.14535672512331</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>31.81983352657883</v>
+        <v>25.14535671250132</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.89493941274563</v>
+        <v>25.14535673732374</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>48.5616070852536</v>
+        <v>25.14535674493076</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.73028254974667</v>
+        <v>25.14535670656933</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.32156267534585</v>
+        <v>25.14535674163275</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>49.01676565099332</v>
+        <v>25.14535675258605</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>26.10637073363145</v>
+        <v>25.14535671943081</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.79177124007037</v>
+        <v>25.1453567440005</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.43675352832477</v>
+        <v>25.14535675167869</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.79994486290187</v>
+        <v>25.14535672519698</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.9261475071271</v>
+        <v>25.14535675235978</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.06250095967184</v>
+        <v>25.14535676084834</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.61307198428312</v>
+        <v>25.14535673437902</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>42.83756627089279</v>
+        <v>25.14535675815164</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>47.32935789122187</v>
+        <v>25.14535676558074</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.98482345162659</v>
+        <v>25.14535675129856</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>51.71002034287318</v>
+        <v>25.14535677786809</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>56.67380990280596</v>
+        <v>25.14535678596662</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.37684653450285</v>
+        <v>25.14535674377298</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.23631039097329</v>
+        <v>25.14535678116244</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.31739618971157</v>
+        <v>25.14535679284689</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.3480668082601</v>
+        <v>25.14535676474752</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>44.23154799049212</v>
+        <v>25.14535678856444</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>48.91460769363152</v>
+        <v>25.14535679593049</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.84498000437582</v>
+        <v>25.14535677138742</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.1902582974981</v>
+        <v>25.14535679771801</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>48.3689410731419</v>
+        <v>25.14535680586148</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.87924714697773</v>
+        <v>25.1453567810242</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>48.29574517960479</v>
+        <v>25.14535680406847</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>52.82442609088132</v>
+        <v>25.14535681119555</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.65763237288743</v>
+        <v>25.1453567966842</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.74938869625512</v>
+        <v>25.14535682239252</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>62.73821209651746</v>
+        <v>25.14535683009639</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.12154901406454</v>
+        <v>25.14535678780178</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.28212339196382</v>
+        <v>25.14535682404569</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>63.42177663415067</v>
+        <v>25.14535683525514</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>17.01749728138558</v>
+        <v>25.14535668110348</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.95214229106028</v>
+        <v>25.14535670347886</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>33.33353130662481</v>
+        <v>25.14535671049964</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>14.26080977705399</v>
+        <v>25.14535668614535</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.45136407113593</v>
+        <v>25.14535671088226</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.29636411432929</v>
+        <v>25.14535671864402</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.11904368808256</v>
+        <v>25.14535669381804</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.65073067798722</v>
+        <v>25.14535671546754</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.88780723150816</v>
+        <v>25.14535672226055</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.35322722434606</v>
+        <v>25.14535671010569</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>39.16637039243655</v>
+        <v>25.14535673422995</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>43.828205209904</v>
+        <v>25.14535674165318</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>19.58405918455254</v>
+        <v>25.14535670450294</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.77566694749592</v>
+        <v>25.14535673855316</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>44.45475435541266</v>
+        <v>25.14535674923719</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.14659503581462</v>
+        <v>25.14535671716486</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.55513255477851</v>
+        <v>25.14535674102667</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>40.19256655871362</v>
+        <v>25.14535674851854</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>18.4880344747674</v>
+        <v>25.14535672256207</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.30813237513038</v>
+        <v>25.14535674894229</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.43610688552319</v>
+        <v>25.14535675722486</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.15062905792813</v>
+        <v>25.14535673143946</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>38.10746426510818</v>
+        <v>25.14535675452715</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.59193928762605</v>
+        <v>25.14535676177598</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.49690864781275</v>
+        <v>25.14535674799318</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>46.94394563379413</v>
+        <v>25.14535677381838</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.90620767476615</v>
+        <v>25.14535678172387</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.21521359585737</v>
+        <v>25.14535674083045</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>45.65262851910823</v>
+        <v>25.14535677714267</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>52.72213240509652</v>
+        <v>25.14535678854358</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.72116426278037</v>
+        <v>25.14535676165043</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>40.33202514881499</v>
+        <v>25.14535678477891</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.00954865147158</v>
+        <v>25.14535679196987</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>23.88682051734425</v>
+        <v>25.14535676791839</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>38.93068200653876</v>
+        <v>25.14535679348789</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.10321199484274</v>
+        <v>25.1453568014378</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.77544652870487</v>
+        <v>25.14535677724158</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.92837890111292</v>
+        <v>25.14535679961975</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>48.45169215140933</v>
+        <v>25.14535680657743</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>39.5222267593625</v>
+        <v>25.14535679255792</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>53.33863237310422</v>
+        <v>25.145356817544</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>58.32731613016422</v>
+        <v>25.14535682506742</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.29432549079533</v>
+        <v>25.14535678405603</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>52.0393281938115</v>
+        <v>25.1453568192523</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>59.17046635867233</v>
+        <v>25.14535683019531</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.3355209000423</v>
+        <v>25.14535666689001</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.52334790823108</v>
+        <v>25.14535669007217</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.80237516032069</v>
+        <v>25.145356697302</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>13.50596978267533</v>
+        <v>25.14535667133977</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.97667070576533</v>
+        <v>25.14535669696861</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.70843833324034</v>
+        <v>25.14535670496149</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.47972434514111</v>
+        <v>25.14535667915482</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.25637948093361</v>
+        <v>25.14535670158493</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.39436490783956</v>
+        <v>25.14535670858022</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.61276340644039</v>
+        <v>25.14535669606073</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>38.61011474703653</v>
+        <v>25.14535672099254</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>43.14437191044541</v>
+        <v>25.14535672864894</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>18.40860708820098</v>
+        <v>25.14535669051669</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.98631265755307</v>
+        <v>25.14535672579466</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.50957893422044</v>
+        <v>25.14535673679681</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>21.1098239151603</v>
+        <v>25.14535670346553</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.7852405216653</v>
+        <v>25.14535672818671</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>39.32791464732678</v>
+        <v>25.14535673590399</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.36669614148742</v>
+        <v>25.14535670827611</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.48209684800182</v>
+        <v>25.14535673560639</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>37.50522367878268</v>
+        <v>25.14535674413817</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>24.14862373356093</v>
+        <v>25.14535671734382</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.36367348596633</v>
+        <v>25.14535674126301</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>41.75639762705339</v>
+        <v>25.14535674872993</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.37980184473874</v>
+        <v>25.14535673454924</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>46.02392950759368</v>
+        <v>25.14535676123597</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>50.86474604016735</v>
+        <v>25.14535676938927</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.64826130802174</v>
+        <v>25.14535672742247</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>44.4926908387293</v>
+        <v>25.14535676504246</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>51.41791082105783</v>
+        <v>25.1453567767864</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.33203427801909</v>
+        <v>25.14535675091258</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>40.24396621896145</v>
+        <v>25.14535677490652</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>44.81579094866852</v>
+        <v>25.145356782295</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>23.43361607008114</v>
+        <v>25.14535675671302</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.81055829935245</v>
+        <v>25.14535678323931</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.86616454156542</v>
+        <v>25.14535679140759</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.46534059594373</v>
+        <v>25.14535676628066</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.90954021745961</v>
+        <v>25.1453567894962</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.33053656038135</v>
+        <v>25.145356796645</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.13638235558919</v>
+        <v>25.14535678221481</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.1868353475699</v>
+        <v>25.14535680806724</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>58.04589450328031</v>
+        <v>25.14535681580679</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.45911500833059</v>
+        <v>25.14535677366382</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>51.66319698586696</v>
+        <v>25.14535681017711</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>58.63340310021468</v>
+        <v>25.1453568214207</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>14.71625754336056</v>
+        <v>25.14535667429995</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.29397191425529</v>
+        <v>25.14535669644343</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.5244978861762</v>
+        <v>25.14535670340968</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>12.0491271275104</v>
+        <v>25.14535667888747</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.84521719657042</v>
+        <v>25.14535670336801</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.52337131063359</v>
+        <v>25.14535671106949</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.69677739624272</v>
+        <v>25.14535668640998</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.88361597298345</v>
+        <v>25.1453567078351</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.97476822893792</v>
+        <v>25.14535671457536</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.73321315168139</v>
+        <v>25.14535670265453</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>36.16940034559974</v>
+        <v>25.14535672652241</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>40.66696277336079</v>
+        <v>25.14535673389082</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>17.17148539007543</v>
+        <v>25.14535669733726</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.8190188850758</v>
+        <v>25.14535673103458</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.26816123338955</v>
+        <v>25.14535674163563</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.39833192775295</v>
+        <v>25.14535670973536</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>32.41530127647826</v>
+        <v>25.14535673335522</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.89952576252705</v>
+        <v>25.14535674078941</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>15.86324110947479</v>
+        <v>25.14535671466711</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.2505813141628</v>
+        <v>25.14535674077984</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.20911769844011</v>
+        <v>25.14535674899864</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>22.28700305944932</v>
+        <v>25.14535672338375</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.86549838466018</v>
+        <v>25.14535674623735</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>39.20178638360638</v>
+        <v>25.14535675343037</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.40294430984362</v>
+        <v>25.14535673989963</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>43.43429847016851</v>
+        <v>25.14535676545455</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>48.22734971161973</v>
+        <v>25.14535677330172</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>22.34395278338867</v>
+        <v>25.14535673304874</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.18451991750152</v>
+        <v>25.14535676899277</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>49.02048927663665</v>
+        <v>25.14535678030591</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>24.15097119261728</v>
+        <v>25.14535675453876</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>37.38265171419788</v>
+        <v>25.145356777447</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>41.90323087148315</v>
+        <v>25.14535678457699</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.4156120638573</v>
+        <v>25.14535676037291</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.04041108789464</v>
+        <v>25.14535678569892</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.03937079131207</v>
+        <v>25.14535679358142</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.06840831637754</v>
+        <v>25.14535676954593</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.85496462049326</v>
+        <v>25.145356791711</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>45.22648338432494</v>
+        <v>25.14535679860968</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.57102541266977</v>
+        <v>25.14535678482486</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.97982419561031</v>
+        <v>25.14535680956311</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>54.79588416534605</v>
+        <v>25.14535681702519</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.55183700286421</v>
+        <v>25.1453567766184</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>48.71890415868972</v>
+        <v>25.14535681147951</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.61080014383003</v>
+        <v>25.14535682232973</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.6339452380396</v>
+        <v>25.14535668102566</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.49749675477202</v>
+        <v>25.14535670327949</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.87314650090399</v>
+        <v>25.14535671027184</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>13.87745111444388</v>
+        <v>25.14535668602656</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.98941155707482</v>
+        <v>25.14535671062908</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.82806320742658</v>
+        <v>25.14535671835942</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>19.70183129788127</v>
+        <v>25.14535669365694</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.16480853686789</v>
+        <v>25.14535671518883</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.39633573164973</v>
+        <v>25.14535672195434</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.91478980691124</v>
+        <v>25.14535670988327</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.65686735954361</v>
+        <v>25.14535673388009</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.3133835881212</v>
+        <v>25.14535674127369</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.20607780438165</v>
+        <v>25.1453567043335</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.28928825592929</v>
+        <v>25.14535673819874</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.95962282320109</v>
+        <v>25.14535674883951</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.62179082844832</v>
+        <v>25.14535671684225</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.95327057406264</v>
+        <v>25.14535674057499</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>39.58540231973164</v>
+        <v>25.14535674803696</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>17.96732753788483</v>
+        <v>25.14535672219451</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>32.70223730408392</v>
+        <v>25.14535674843203</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>37.82434871834521</v>
+        <v>25.14535675668155</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.58931903775321</v>
+        <v>25.14535673102151</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>37.47167782861345</v>
+        <v>25.14535675398433</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>41.95102801893462</v>
+        <v>25.14535676120422</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.91027522157733</v>
+        <v>25.14535674751174</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>46.28012299541926</v>
+        <v>25.14535677320118</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>51.23734436463272</v>
+        <v>25.14535678107554</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>24.69503198332987</v>
+        <v>25.14535674041153</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.01495915456881</v>
+        <v>25.14535677652734</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>52.07637943375477</v>
+        <v>25.14535678788275</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.15575867002018</v>
+        <v>25.14535676110087</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>39.68993518147404</v>
+        <v>25.14535678410461</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>44.3615500400244</v>
+        <v>25.14535679126628</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>23.32729771841312</v>
+        <v>25.14535676732109</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>38.28638467186074</v>
+        <v>25.14535679275267</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>43.45238056101898</v>
+        <v>25.1453568006702</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.17279141433587</v>
+        <v>25.14535677659062</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.25160634441364</v>
+        <v>25.14535679884808</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>47.76920899659065</v>
+        <v>25.14535680577742</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.8934236084544</v>
+        <v>25.14535679184819</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>52.63251715907914</v>
+        <v>25.14535681670293</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>57.6153205662312</v>
+        <v>25.14535682419609</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.73185363261732</v>
+        <v>25.14535678341436</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>51.35994468153378</v>
+        <v>25.14535681842079</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>58.48207314588532</v>
+        <v>25.14535682931922</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>18.70267080123792</v>
+        <v>25.14535667570468</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.75913541027543</v>
+        <v>25.14535669868996</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.12818970134404</v>
+        <v>25.14535670589512</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>16.11734800013894</v>
+        <v>25.14535668070742</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.44254957101118</v>
+        <v>25.1453567061186</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>34.27392794339487</v>
+        <v>25.14535671408421</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.04814787202606</v>
+        <v>25.14535668853298</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>33.69756650894364</v>
+        <v>25.14535671077259</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>37.92271428047569</v>
+        <v>25.14535671774401</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.20459412257384</v>
+        <v>25.14535670524947</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>41.10369708599897</v>
+        <v>25.14535673000143</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>45.7501826189986</v>
+        <v>25.14535673762049</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>21.12528633702289</v>
+        <v>25.14535669953584</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.50254579133878</v>
+        <v>25.14535673451418</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>46.16291369646758</v>
+        <v>25.1453567454788</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>23.77428936017349</v>
+        <v>25.14535671249307</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>37.32244523734103</v>
+        <v>25.14535673701103</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.94291144370226</v>
+        <v>25.14535674469504</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.29109569991556</v>
+        <v>25.14535671785879</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>35.26552258860805</v>
+        <v>25.14535674496442</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>40.37474539670355</v>
+        <v>25.14535675345941</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>27.03421165695077</v>
+        <v>25.14535672692711</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>40.1259904546642</v>
+        <v>25.14535675064968</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>44.59405118455921</v>
+        <v>25.14535675808441</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>35.29907387115205</v>
+        <v>25.14535674393141</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>48.8529616250873</v>
+        <v>25.14535677043201</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>53.79273141203971</v>
+        <v>25.1453567785398</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.69661615998615</v>
+        <v>25.14535673663002</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.34681007187231</v>
+        <v>25.14535677394077</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>54.39052421464545</v>
+        <v>25.14535678563407</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.44353408125898</v>
+        <v>25.14535675872996</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>42.21661095102777</v>
+        <v>25.14535678251501</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>46.86473791275482</v>
+        <v>25.14535678987558</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.78964636955176</v>
+        <v>25.14535676501683</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>41.01282074588287</v>
+        <v>25.14535679131218</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>46.15286762666155</v>
+        <v>25.1453567994496</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>32.76406076269404</v>
+        <v>25.14535677456222</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>46.07379494042323</v>
+        <v>25.14535679757565</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>50.5686805715755</v>
+        <v>25.14535680469744</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.44358574707212</v>
+        <v>25.14535679029919</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>55.39181246839911</v>
+        <v>25.14535681595771</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>60.34473967161924</v>
+        <v>25.14535682365916</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>32.898001294612</v>
+        <v>25.14535678160727</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>53.8902064028572</v>
+        <v>25.14535681780267</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>60.97663282235845</v>
+        <v>25.14535682900379</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>17.4793845317793</v>
+        <v>25.14535667064309</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.71322852810819</v>
+        <v>25.14535669385067</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.02809100695356</v>
+        <v>25.14535670108158</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>14.8375838916554</v>
+        <v>25.14535667536296</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.3591000966785</v>
+        <v>25.14535670101991</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>33.13051368302327</v>
+        <v>25.14535670901398</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>20.82613764247328</v>
+        <v>25.1453566832272</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>32.64723183899864</v>
+        <v>25.14535670568191</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.81989576919264</v>
+        <v>25.14535671267824</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.00694464907137</v>
+        <v>25.14535670010531</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>40.06752759738036</v>
+        <v>25.14535672507317</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>44.63779307949724</v>
+        <v>25.14535673272667</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>19.79393793411178</v>
+        <v>25.14535669444536</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>38.4417176952516</v>
+        <v>25.14535672976201</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>45.01959815975081</v>
+        <v>25.1453567407658</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>22.2747763945161</v>
+        <v>25.14535670730801</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.99831280118205</v>
+        <v>25.14535673205528</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>40.57483286219599</v>
+        <v>25.14535673977247</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>18.7189441679659</v>
+        <v>25.14535671238862</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.88748600861046</v>
+        <v>25.14535673974776</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>38.94805930032462</v>
+        <v>25.14535674827943</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.51675269946948</v>
+        <v>25.1453567215044</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>38.77827737083184</v>
+        <v>25.14535674544885</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>43.2037551952228</v>
+        <v>25.14535675291568</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.80368378569609</v>
+        <v>25.14535673867988</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>47.51401031603451</v>
+        <v>25.14535676540455</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>52.38934051851722</v>
+        <v>25.1453567735542</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.06767282963503</v>
+        <v>25.14535673143407</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>45.98537529815806</v>
+        <v>25.14535676909377</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>52.96218281069932</v>
+        <v>25.14535678083756</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>27.18983686755564</v>
+        <v>25.14535675426383</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>41.13781240225625</v>
+        <v>25.14535677827513</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>45.74646527169307</v>
+        <v>25.14535678566735</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>24.45535813707311</v>
+        <v>25.14535676030127</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>39.87209735998346</v>
+        <v>25.14535678684677</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>44.96844338409444</v>
+        <v>25.14535679501917</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>31.49662041923879</v>
+        <v>25.14535676990522</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.97562286796368</v>
+        <v>25.14535679313758</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.43225512717761</v>
+        <v>25.14535680028998</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>40.21931979353589</v>
+        <v>25.14535678581092</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>54.32406104182397</v>
+        <v>25.14535681169198</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>59.22073081020361</v>
+        <v>25.14535681943225</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.54831466464083</v>
+        <v>25.14535677715762</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.80727271972853</v>
+        <v>25.14535681369735</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>59.83360597948933</v>
+        <v>25.14535682494662</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.145</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.394</v>
+        <v>18.578</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.322</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.339</v>
+        <v>19.529</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.992</v>
+        <v>15.733</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.14535667990972</v>
+        <v>0.9828080533386583</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.14535670258553</v>
+        <v>23.93900389278537</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.14535670970506</v>
+        <v>30.68551755025269</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.14535668499401</v>
+        <v>4.488413391093758</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.14535671006306</v>
+        <v>21.38210940141693</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.14535671793399</v>
+        <v>28.04320602489219</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.14535669277888</v>
+        <v>15.64243285128913</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.14535671471905</v>
+        <v>28.98607781715633</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.14535672160761</v>
+        <v>33.98870622611954</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.1453567092953</v>
+        <v>30.68541024202495</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.14535673374012</v>
+        <v>37.4192212275256</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.14535674126855</v>
+        <v>43.00911060516434</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.14535670362416</v>
+        <v>10.31646117337393</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.14535673813156</v>
+        <v>30.20104650891106</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.14535674896585</v>
+        <v>37.69723947960998</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.1453567163285</v>
+        <v>3.976235909302869</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.1453567405115</v>
+        <v>29.78358508941817</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.14535674810881</v>
+        <v>38.72142636261755</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.14535672177292</v>
+        <v>2.920121501800974</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.14535674850824</v>
+        <v>23.05860522015122</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.14535675690738</v>
+        <v>31.57361219791703</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.14535673077753</v>
+        <v>16.87196529686928</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.14535675417601</v>
+        <v>32.68859696861409</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.14535676152685</v>
+        <v>39.29239704907746</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.14535674756631</v>
+        <v>35.67638384657107</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.1453567737354</v>
+        <v>44.8241103774067</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.14535678175278</v>
+        <v>51.89306633460499</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.14535674031936</v>
+        <v>14.07127970812803</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.14535677712037</v>
+        <v>37.78530760231118</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.14535678868174</v>
+        <v>47.33803648010754</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.14535676139769</v>
+        <v>9.438455621613439</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.14535678484027</v>
+        <v>36.66953904335947</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.1453567921299</v>
+        <v>46.87911622751106</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.14535676772848</v>
+        <v>8.331279905552602</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.14535679364522</v>
+        <v>30.16496909154136</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.14535680170421</v>
+        <v>39.9080993340488</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.14535677718404</v>
+        <v>24.84635481541799</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.14535679986611</v>
+        <v>42.159843589118</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.14535680691926</v>
+        <v>49.81621963678674</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.14535679272007</v>
+        <v>48.40787726197257</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.14535681804127</v>
+        <v>58.47277232327255</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.1453568256686</v>
+        <v>66.20183402225076</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.14535678411673</v>
+        <v>24.61735570427709</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.14535681979098</v>
+        <v>50.27565946373158</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.14535683088414</v>
+        <v>61.26218230771262</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.14535666695583</v>
+        <v>4.296008932755296</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.14535668989</v>
+        <v>28.39272957652167</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.14535669700573</v>
+        <v>34.55121959064645</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.14535667138658</v>
+        <v>8.8457195562262</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.14535669674126</v>
+        <v>27.06580139571601</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.14535670460799</v>
+        <v>33.0460805430481</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.14535667908225</v>
+        <v>20.17134886604553</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.14535670127241</v>
+        <v>34.6723255401286</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.14535670815729</v>
+        <v>39.10091517617877</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.14535669570843</v>
+        <v>36.27545090773319</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.14535672034726</v>
+        <v>43.53606039231036</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.1453567278788</v>
+        <v>48.51893674070313</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.14535669016395</v>
+        <v>14.34413967315126</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.14535672506452</v>
+        <v>35.72452204340911</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.14535673589305</v>
+        <v>42.4555519529583</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.14535670313328</v>
+        <v>5.731284564137717</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.14535672759361</v>
+        <v>32.73078491725612</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.14535673518355</v>
+        <v>41.00408398042578</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.14535670792156</v>
+        <v>5.671023089435277</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.14535673496347</v>
+        <v>27.185853417277</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.14535674335446</v>
+        <v>34.94216245286413</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.1453567168662</v>
+        <v>19.92032410386938</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.14535674053301</v>
+        <v>36.94492741590385</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.14535674787672</v>
+        <v>42.90190729161766</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.14535673380189</v>
+        <v>39.97094046501607</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.14535676017605</v>
+        <v>49.63078029283054</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.14535676818977</v>
+        <v>55.99417866447568</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.14535672669783</v>
+        <v>16.94149866580486</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.14535676392087</v>
+        <v>42.21297807655071</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.14535677547103</v>
+        <v>50.90579488498597</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.1453567503259</v>
+        <v>12.33708972945492</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.1453567740785</v>
+        <v>40.89220962898247</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.14535678133683</v>
+        <v>50.41115543069471</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.14535675609643</v>
+        <v>11.96977959610188</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.14535678235591</v>
+        <v>35.30979947917662</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.1453567903803</v>
+        <v>44.28820479924334</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.14535676555184</v>
+        <v>28.93284041016423</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.14535678853387</v>
+        <v>47.56698445608973</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.14535679555674</v>
+        <v>54.5636467190661</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.14535678123637</v>
+        <v>53.6595184558624</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.14535680679669</v>
+        <v>64.29820288458423</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.14535681439627</v>
+        <v>71.2976055701992</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.14535677271867</v>
+        <v>28.43311883937785</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.1453568088647</v>
+        <v>55.8018603458317</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.14535681991023</v>
+        <v>65.90769470268759</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.14535666695583</v>
+        <v>3.167207166772258</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.14535668989</v>
+        <v>27.15414148677712</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.14535669700573</v>
+        <v>33.27436066675337</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.14535667138658</v>
+        <v>7.522823730977159</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.14535669674126</v>
+        <v>25.62443113419529</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.14535670460799</v>
+        <v>31.56262307381376</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.14535667908225</v>
+        <v>18.84028534976922</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.14535670127241</v>
+        <v>33.23508969009472</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.14535670815729</v>
+        <v>37.6260053847448</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.14535669570843</v>
+        <v>35.0147118815738</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.14535672034726</v>
+        <v>42.22611156539688</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.1453567278788</v>
+        <v>47.16059328757861</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.14535669016395</v>
+        <v>13.20832701591805</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.14535672506452</v>
+        <v>34.454553572588</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.14535673589305</v>
+        <v>41.13647313741381</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.14535670313328</v>
+        <v>5.670848427908446</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.14535672759361</v>
+        <v>32.58686258375371</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.14535673518355</v>
+        <v>40.80732529319162</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.14535670792156</v>
+        <v>5.463167480968497</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.14535673496347</v>
+        <v>26.88504920364897</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.14535674335446</v>
+        <v>34.58471553561904</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.1453567168662</v>
+        <v>19.72788523110084</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.14535674053301</v>
+        <v>36.66798840310061</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.14535674787672</v>
+        <v>42.57473086052629</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.14535673380189</v>
+        <v>39.80197146377323</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.14535676017605</v>
+        <v>49.42006429784015</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>25.14535676818977</v>
+        <v>55.7227058228294</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.14535672669783</v>
+        <v>16.85194359650242</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.14535676392087</v>
+        <v>42.01706840954429</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.14535677547103</v>
+        <v>50.64346909306934</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.1453567503259</v>
+        <v>12.34104222243551</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.1453567740785</v>
+        <v>40.82918451442458</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.14535678133683</v>
+        <v>50.29633311021593</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.14535675609643</v>
+        <v>11.82242239028754</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.14535678235591</v>
+        <v>35.08471561946402</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.1453567903803</v>
+        <v>44.00876190238358</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.14535676555184</v>
+        <v>28.80048617463053</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.14535678853387</v>
+        <v>47.36490455463341</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.14535679555674</v>
+        <v>54.31233285385314</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25.14535678123637</v>
+        <v>53.54179901023247</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>25.14535680679669</v>
+        <v>64.14389064982285</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>25.14535681439627</v>
+        <v>71.08682359212069</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.14535677271867</v>
+        <v>28.37137019166399</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.1453568088647</v>
+        <v>55.65169555881363</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>25.14535681991023</v>
+        <v>65.69307935568617</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.14535667404215</v>
+        <v>-3.733786085285264</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.14535669683591</v>
+        <v>18.86052592203118</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.14535670399276</v>
+        <v>25.34964476103981</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.14535667881663</v>
+        <v>-0.5060079655220626</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.14535670401608</v>
+        <v>16.01497062636358</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.14535671192827</v>
+        <v>22.36973113670833</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.14535668656323</v>
+        <v>10.28141643202659</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.14535670861754</v>
+        <v>23.30620464204895</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.14535671554221</v>
+        <v>28.05942835357521</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.1453567032638</v>
+        <v>24.89997752609598</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.14535672783398</v>
+        <v>31.49398492834563</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.14535673540484</v>
+        <v>36.94607225895613</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.14535669775485</v>
+        <v>4.985181278218718</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.14535673244177</v>
+        <v>24.44686037916929</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.14535674333285</v>
+        <v>31.60355960034857</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.14535671074871</v>
+        <v>-0.8767261814534955</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.14535673506066</v>
+        <v>24.55650487223372</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.14535674269876</v>
+        <v>33.20559172408322</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.1453567158825</v>
+        <v>-2.172299304438067</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.14535674276037</v>
+        <v>17.57415822905786</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.14535675120461</v>
+        <v>25.76018372894512</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.14535674838434</v>
+        <v>26.88216157243353</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.14535675577465</v>
+        <v>33.21337859231961</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.14535674183661</v>
+        <v>29.79502180067794</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.14535676814251</v>
+        <v>38.79714444632979</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.14535677620562</v>
+        <v>45.70386153467</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.14535673473859</v>
+        <v>8.658377267301185</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.14535677173584</v>
+        <v>31.92772766973454</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.14535678335929</v>
+        <v>41.11100301541362</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.14535675690511</v>
+        <v>5.3963777928778</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.145356780479</v>
+        <v>32.28350958733323</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.14535678780756</v>
+        <v>42.20123299564631</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.14535676296813</v>
+        <v>4.006488257245412</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.14535678903004</v>
+        <v>25.47811306880428</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.14535679713207</v>
+        <v>34.88917579277265</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.14535677241837</v>
+        <v>20.19703972867622</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.14535679522749</v>
+        <v>37.20210246293628</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.14535680231831</v>
+        <v>44.58151380662682</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.14535678812482</v>
+        <v>43.30785849101293</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.14535681358496</v>
+        <v>53.2464966355375</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.14535682125528</v>
+        <v>60.80401407467983</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.14535677963264</v>
+        <v>19.95515226631881</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.14535681550671</v>
+        <v>45.20413864152989</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.14535682665911</v>
+        <v>55.81578637822601</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.14535668118473</v>
+        <v>4.473345015424165</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.14535670385241</v>
+        <v>27.99191094620979</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.14535671093696</v>
+        <v>34.59644372960447</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.14535668632372</v>
+        <v>8.571324901952357</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.14535671138378</v>
+        <v>26.0712032224267</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.14535671921603</v>
+        <v>32.57958969811924</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.14535669410612</v>
+        <v>19.8729019220274</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.14535671603843</v>
+        <v>33.74230619039384</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.14535672289314</v>
+        <v>38.62443810835288</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.14535671052159</v>
+        <v>35.16754990926854</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.14535673494908</v>
+        <v>42.1721636826517</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.14535674243867</v>
+        <v>47.67238924832805</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.14535670477724</v>
+        <v>14.29267912636311</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.14535673927228</v>
+        <v>34.8509009298735</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.14535675005333</v>
+        <v>42.17188050032151</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.14535671773351</v>
+        <v>9.369711518865275</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.14535674190618</v>
+        <v>35.79337645129668</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.14535674946578</v>
+        <v>44.48924250705261</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.1453567232393</v>
+        <v>8.989927404750546</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.14535674996318</v>
+        <v>29.78016902544483</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.14535675832063</v>
+        <v>38.03982232285532</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.14535675563413</v>
+        <v>39.55342056880298</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.14535676294848</v>
+        <v>45.94533362591378</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.14535674893651</v>
+        <v>42.29331501988273</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.14535677508511</v>
+        <v>51.7222227851729</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.14535678306099</v>
+        <v>58.64939353729909</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.14535674161397</v>
+        <v>20.18120094478468</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.14535677839925</v>
+        <v>44.62258257244625</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.14535678990323</v>
+        <v>53.88409706293871</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.1453567626516</v>
+        <v>14.11965937370045</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.1453567860814</v>
+        <v>41.915547751456</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.14535679333813</v>
+        <v>51.89653896904836</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.1453567690331</v>
+        <v>13.60673664918404</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.14535679493572</v>
+        <v>36.04091288353295</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.14535680295833</v>
+        <v>45.53850873030572</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.14535677849087</v>
+        <v>30.33484861614783</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.14535680116059</v>
+        <v>48.17321735668411</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.1453568081819</v>
+        <v>55.62494760375661</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.14535679393728</v>
+        <v>54.21982636636291</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.14535681923712</v>
+        <v>64.5525870070551</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.14535682682841</v>
+        <v>72.13712086273195</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.14535678526779</v>
+        <v>29.98307347218384</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.14535682092261</v>
+        <v>56.31333938091744</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.14535683196569</v>
+        <v>67.01847273847454</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.14535667374465</v>
+        <v>4.219722969276631</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.14535669658055</v>
+        <v>28.00259444807719</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.14535670365558</v>
+        <v>33.96558074086159</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.14535667855872</v>
+        <v>9.05148724766515</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.14535670380475</v>
+        <v>27.07879741798221</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.1453567116265</v>
+        <v>32.89648679503113</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.14535668628315</v>
+        <v>20.14107149309136</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.14535670837822</v>
+        <v>34.52573938521387</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.14535671522374</v>
+        <v>38.84229542575839</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.14535670270894</v>
+        <v>35.86358023604055</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.14535672725833</v>
+        <v>43.11872997525151</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.14535673473799</v>
+        <v>47.9810359308642</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.14535669697375</v>
+        <v>14.41042246641348</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.14535673172477</v>
+        <v>35.5385114642086</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.14535674249136</v>
+        <v>42.0884247490586</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.14535671041619</v>
+        <v>10.50833191510952</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.14535673477621</v>
+        <v>37.2518613539077</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.14535674231911</v>
+        <v>45.13396865270592</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.14535671560673</v>
+        <v>11.02831379511335</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.14535674253775</v>
+        <v>32.39900829033313</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.14535675087673</v>
+        <v>39.79099467166445</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.14535672458231</v>
+        <v>25.10408778895188</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.14535674815207</v>
+        <v>42.06382431115097</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.14535675545027</v>
+        <v>47.73720618285157</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.14535674131372</v>
+        <v>44.70930048626048</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.14535676759657</v>
+        <v>54.36450127647477</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.14535677555299</v>
+        <v>60.50262020612402</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.14535673400472</v>
+        <v>22.10412587180858</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.14535677107511</v>
+        <v>47.17242361683266</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.14535678255368</v>
+        <v>55.46261029980273</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.14535675669834</v>
+        <v>16.33621298802404</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.14535676281728</v>
+        <v>16.54722453088558</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.14535678895372</v>
+        <v>39.58736388968911</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.14535679693947</v>
+        <v>48.15570517366753</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.14535677228604</v>
+        <v>33.23848946112591</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.14535679516038</v>
+        <v>51.66923340814304</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.14535680214943</v>
+        <v>58.34444861259638</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.14535678777667</v>
+        <v>57.39750773469706</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.14535681323575</v>
+        <v>67.95420492467098</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.14535682079174</v>
+        <v>74.69297283759192</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.1453567790866</v>
+        <v>32.71725471057386</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.14535681506326</v>
+        <v>59.70914795433399</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.1453568260556</v>
+        <v>69.36099196572412</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.14535667084652</v>
+        <v>-3.30427703681876</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.14535669370089</v>
+        <v>19.05548376852979</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.14535670085544</v>
+        <v>25.2930275746604</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.14535667553627</v>
+        <v>0.03277475450861189</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.14535670080272</v>
+        <v>16.53552158778931</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.14535670871237</v>
+        <v>22.63948804184545</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.14535668326629</v>
+        <v>10.81082041312598</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.14535670537923</v>
+        <v>23.87075923008354</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.14535671230167</v>
+        <v>28.4117953758696</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.14535669992154</v>
+        <v>25.8912422426271</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.14535672451034</v>
+        <v>32.47740933699656</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.14535673207828</v>
+        <v>37.50340674061523</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.14535669435276</v>
+        <v>5.757239527357687</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.1453567291319</v>
+        <v>25.18408778911872</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.14535674001948</v>
+        <v>32.06693815902347</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.14535670722255</v>
+        <v>-0.198995946149882</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.14535673160606</v>
+        <v>25.02367280535509</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.14535673923469</v>
+        <v>33.40291782811784</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.14535671227362</v>
+        <v>-1.285546517167884</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.14535673923061</v>
+        <v>18.47975966350324</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.14535674766438</v>
+        <v>26.38746160241291</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.14535672124523</v>
+        <v>12.32630874324868</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.14535674483772</v>
+        <v>27.88124162093254</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.14535675221886</v>
+        <v>33.98362442498149</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.1453567381992</v>
+        <v>31.11114767888508</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.14535676452865</v>
+        <v>40.07785905020572</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.14535677257938</v>
+        <v>46.49529416513002</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.14535673106203</v>
+        <v>9.781843629849977</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.14535676816818</v>
+        <v>33.05174149626048</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.14535677977721</v>
+        <v>41.93392622879918</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.14535675384817</v>
+        <v>7.219222245667989</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.1453567775185</v>
+        <v>33.9890567890209</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.14535678481667</v>
+        <v>43.54081493574445</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.14535675985184</v>
+        <v>5.986520419606141</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.14535678602038</v>
+        <v>27.5597410181788</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.14535679408881</v>
+        <v>36.61716974004396</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.14535676931556</v>
+        <v>22.24529206171322</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.145356792218</v>
+        <v>39.39325222157196</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.14535679927941</v>
+        <v>46.47619547412986</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.14535678500993</v>
+        <v>45.57055853492464</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.14535681051755</v>
+        <v>55.47508760490638</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.14535681815545</v>
+        <v>62.50055220942627</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.14535677647019</v>
+        <v>22.0060298570571</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.14535681249103</v>
+        <v>47.35064470565653</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.14535682359719</v>
+        <v>57.56685022303586</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.14535667712251</v>
+        <v>-3.653059665261235</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.14535670016724</v>
+        <v>19.791063345997</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.14535670736531</v>
+        <v>26.35023245124406</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.1453566821619</v>
+        <v>0.1008421604959651</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.1453567076388</v>
+        <v>17.47838240119857</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.14535671559657</v>
+        <v>23.92067050013759</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.14535669003218</v>
+        <v>11.15902436673713</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.14535671232931</v>
+        <v>24.91336507537084</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.14535671929386</v>
+        <v>29.73447927130761</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.14535670675052</v>
+        <v>26.58672067477093</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.14535673157599</v>
+        <v>33.54745350125557</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.14535673918723</v>
+        <v>39.0154859393232</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.14535670099511</v>
+        <v>5.836635898795763</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.14535673606392</v>
+        <v>26.26526713569688</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.14535674701775</v>
+        <v>33.51317663053356</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.14535671425612</v>
+        <v>0.1926153247597817</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.14535673883317</v>
+        <v>26.53750855745978</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.14535674651364</v>
+        <v>35.22102166984358</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.14535671966807</v>
+        <v>-0.6023303504933075</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.14535674683901</v>
+        <v>20.06336648085787</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.14535675533009</v>
+        <v>28.29218867895329</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.14535672878641</v>
+        <v>13.33340034852174</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.14535675256615</v>
+        <v>29.60019418834524</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.14535675999745</v>
+        <v>35.9597815325084</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.14535674578916</v>
+        <v>32.61671367240812</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.14535677236543</v>
+        <v>42.01323278142351</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.14535678047013</v>
+        <v>48.91971980701999</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.14535673843093</v>
+        <v>10.6484202840062</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.14535677583159</v>
+        <v>34.95932208409065</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.14535678751951</v>
+        <v>44.18435035299753</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.14535676036484</v>
+        <v>5.792478580940752</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.1453567841933</v>
+        <v>33.55924064467644</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.1453567915633</v>
+        <v>43.54242545344005</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.14535676668844</v>
+        <v>4.857128632324933</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.14535679303179</v>
+        <v>27.21743544660325</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.14535680117962</v>
+        <v>36.70158798087305</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.14535677627671</v>
+        <v>21.41029575302031</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.14535679933215</v>
+        <v>39.17382103015799</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.14535680646306</v>
+        <v>46.60734462849313</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.14535679201243</v>
+        <v>45.4541934919713</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.1453568177328</v>
+        <v>55.77861408224119</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.14535682544382</v>
+        <v>63.35078768464045</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.14535678327051</v>
+        <v>21.30847661888353</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.14535681953199</v>
+        <v>47.5668598371618</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.14535683074744</v>
+        <v>58.25347412711892</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.14535667984582</v>
+        <v>10.96249073830464</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.14535670250419</v>
+        <v>35.42303824925195</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.14535670952803</v>
+        <v>41.70647989874946</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.14535668503927</v>
+        <v>16.2612022256685</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.14535671008904</v>
+        <v>34.88899491459108</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.14535671785418</v>
+        <v>41.06564737537258</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.14535669278499</v>
+        <v>27.89924568350308</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.14535671470829</v>
+        <v>42.79427690970412</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.14535672150427</v>
+        <v>47.39496528545408</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.14535670900264</v>
+        <v>44.34934267958806</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.1453567333565</v>
+        <v>51.81671474076393</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.14535674077753</v>
+        <v>56.82656854480153</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.14535670311695</v>
+        <v>22.22570697466674</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.14535673759782</v>
+        <v>44.05702653141945</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.1453567482865</v>
+        <v>51.01945799602483</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.14535671576981</v>
+        <v>12.8189749901885</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.14535673993649</v>
+        <v>40.20243400640304</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.14535674742161</v>
+        <v>48.45067235762103</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.1453567213219</v>
+        <v>13.46382525595142</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.14535674803916</v>
+        <v>35.41624339680271</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.14535675631426</v>
+        <v>43.19676682168675</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.14535673029944</v>
+        <v>27.98626169775589</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.14535675368211</v>
+        <v>45.43228515882447</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.1453567609244</v>
+        <v>51.42214284656804</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.14535674682271</v>
+        <v>48.29341494946958</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.1453567728919</v>
+        <v>58.16697565512442</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.14535678078272</v>
+        <v>64.47521445568358</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.14535673939385</v>
+        <v>25.08721743465332</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.14535677617001</v>
+        <v>50.83633084766389</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.14535678756065</v>
+        <v>59.57390116496825</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.14535676082801</v>
+        <v>18.3413798129611</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.145356784281</v>
+        <v>47.15730149549989</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.14535679144305</v>
+        <v>56.61986288525765</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.14535676726033</v>
+        <v>18.76033176803952</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.14535679318859</v>
+        <v>42.40716131008143</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.14535680110653</v>
+        <v>51.37704975031231</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.14535677671221</v>
+        <v>35.89118071756607</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.14535679940436</v>
+        <v>54.83014009624101</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.14535680633406</v>
+        <v>61.83425924216229</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.14535679201296</v>
+        <v>60.80741062670798</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.14535681726232</v>
+        <v>71.58344868269349</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.14535682475065</v>
+        <v>78.49965738089536</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.14535678324258</v>
+        <v>35.48406921530743</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.14535681893268</v>
+        <v>63.18463089787053</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.14535682983169</v>
+        <v>73.29675620814477</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.14535666017109</v>
+        <v>-5.397404136300189</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.14535668216301</v>
+        <v>16.17012311387669</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.1453566890597</v>
+        <v>22.26537431798252</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.14535666379422</v>
+        <v>-2.784298844521853</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.1453566881072</v>
+        <v>13.15230668227794</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.14535669573178</v>
+        <v>19.08577831192451</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.14535667109118</v>
+        <v>7.610547677259804</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.14535669236965</v>
+        <v>20.17060175969446</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.14535669904261</v>
+        <v>24.5772265769147</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.14535668734256</v>
+        <v>22.21849585820253</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.14535671099053</v>
+        <v>28.5250378091235</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.14535671830278</v>
+        <v>33.46312970649234</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.14535668242203</v>
+        <v>2.478631767258371</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.14535671588871</v>
+        <v>21.24574544710362</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.1453567263839</v>
+        <v>27.90943875587747</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.14535669472934</v>
+        <v>-3.714082243949722</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.14535671818851</v>
+        <v>20.54970344765692</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.14535672555239</v>
+        <v>28.8855020959316</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.14535669869009</v>
+        <v>-5.393542539110342</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.14535672462517</v>
+        <v>13.610552400317</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.14535673276626</v>
+        <v>21.48132476012069</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.1453567071781</v>
+        <v>7.754185848947973</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.14535672987623</v>
+        <v>22.65400114682723</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.14535673700122</v>
+        <v>28.72659299129798</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.1453567237173</v>
+        <v>25.99996607056258</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.14535674903657</v>
+        <v>34.56863098918254</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.14535675682415</v>
+        <v>40.95104831842266</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.14535671729873</v>
+        <v>5.140508766545796</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.14535675299823</v>
+        <v>27.53418338614498</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.14535676420438</v>
+        <v>36.34274139912017</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.14535674107901</v>
+        <v>3.318523139638668</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.14535676386625</v>
+        <v>29.13995453374254</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.14535677090716</v>
+        <v>38.66268649444625</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.14535674605108</v>
+        <v>1.396876415542234</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.14535677124333</v>
+        <v>22.21807248748798</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.14535677902734</v>
+        <v>31.25302821480965</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.14535675503887</v>
+        <v>17.13676012324243</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.14535677708687</v>
+        <v>33.64012750656575</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.14535678389936</v>
+        <v>40.70429780339876</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.14535677035679</v>
+        <v>39.86029269835745</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.14535679490167</v>
+        <v>49.39656041288838</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.14535680228407</v>
+        <v>56.41700273056436</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.14535676253801</v>
+        <v>16.8481037393276</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.14535679721501</v>
+        <v>41.32234327056155</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.14535680792966</v>
+        <v>51.4839163379044</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.1453566631864</v>
+        <v>0.8574215073206659</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.14535668557746</v>
+        <v>23.97699612658244</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.1453566925231</v>
+        <v>29.75927744024783</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.14535666712815</v>
+        <v>4.833487467307442</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.1453566918824</v>
+        <v>22.22853587026384</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.14535669956109</v>
+        <v>27.79394723871486</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.14535667456895</v>
+        <v>15.62218768385874</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.14535669623362</v>
+        <v>29.42749875168482</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.14535670295393</v>
+        <v>33.52773996638096</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.14535669088265</v>
+        <v>30.96491362670033</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.14535671493947</v>
+        <v>37.90922678827094</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.14535672229574</v>
+        <v>42.65818508761323</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.14535668565287</v>
+        <v>9.89647629108025</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.14535671972695</v>
+        <v>30.3128747183879</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.14535673029663</v>
+        <v>36.56719209468914</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.1453566987816</v>
+        <v>6.241252447579907</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.1453567226652</v>
+        <v>32.25766351258</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.14535673007673</v>
+        <v>40.09512716431323</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.14535670308133</v>
+        <v>5.971398536001367</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.14535672948563</v>
+        <v>26.63224946483813</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.14535673767939</v>
+        <v>33.93409769842215</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.14535671174805</v>
+        <v>19.7255159565094</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.14535673485683</v>
+        <v>36.04032068250601</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.14535674202792</v>
+        <v>41.62900198998703</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.14535672836242</v>
+        <v>38.93214519008025</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.14535675411636</v>
+        <v>48.23442186090255</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.14535676194644</v>
+        <v>54.32708188053483</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.14535672159837</v>
+        <v>16.69627745391873</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.14535675794375</v>
+        <v>40.96926942681861</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.14535676922241</v>
+        <v>49.13913392020264</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.14535674563552</v>
+        <v>12.8908372263587</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.1453567688305</v>
+        <v>40.44785212265208</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.14535677592156</v>
+        <v>49.50850184692851</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.14535675093336</v>
+        <v>12.22781932190756</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.14535677657639</v>
+        <v>34.69420486758257</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.14535678441585</v>
+        <v>43.19290716368776</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.1453567601127</v>
+        <v>28.65812130079512</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.14535678255522</v>
+        <v>46.5668353536751</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.14535678941624</v>
+        <v>53.17141597657458</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.14535677549808</v>
+        <v>52.42277877883606</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.14535680046124</v>
+        <v>62.70030437948245</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.14535680788941</v>
+        <v>69.42142360568283</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.14535676732749</v>
+        <v>28.03415939710877</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25.14535680262497</v>
+        <v>54.38213674957024</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.14535681341594</v>
+        <v>63.93682043714385</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.14535666013557</v>
+        <v>-4.395081651343443</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.14535668225419</v>
+        <v>17.72121962039348</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.14535668915678</v>
+        <v>23.48545656533507</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.14535666388248</v>
+        <v>-1.248482341912162</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.14535668833553</v>
+        <v>15.10500176263137</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.14535669596663</v>
+        <v>20.63747207687106</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.14535667119776</v>
+        <v>9.168651129898246</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.14535669259882</v>
+        <v>22.0934348478488</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.14535669927748</v>
+        <v>26.16368127366709</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.1453566874793</v>
+        <v>23.87012186076862</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.14535671124792</v>
+        <v>30.36598397225787</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.14535671856026</v>
+        <v>35.07170346776531</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.14535668248086</v>
+        <v>3.808257963128092</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.14535671614034</v>
+        <v>23.06161893321521</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.14535672664451</v>
+        <v>29.29630015369004</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.14535669494026</v>
+        <v>-3.646129174754154</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.14535671853702</v>
+        <v>21.25862247798553</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.14535672590124</v>
+        <v>29.14664233736456</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.14535669901941</v>
+        <v>-4.926543942492302</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.1453567251066</v>
+        <v>14.59529810956169</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.14535673324806</v>
+        <v>21.93721322730802</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.14535670754119</v>
+        <v>8.268811957045118</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.14535673037244</v>
+        <v>23.61379992747191</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.14535673749777</v>
+        <v>29.24028879585515</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.14535672411982</v>
+        <v>26.72860099265946</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.14535674956824</v>
+        <v>35.5468284677164</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.1453567573494</v>
+        <v>41.61382712420098</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.14535671761592</v>
+        <v>5.559352058382625</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.1453567535248</v>
+        <v>28.55283584935489</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.14535676473148</v>
+        <v>36.78337249071937</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.14535674177144</v>
+        <v>4.755386885584837</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.14535676469852</v>
+        <v>31.29670526483112</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.14535677173571</v>
+        <v>40.36090994243301</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.14535674686307</v>
+        <v>3.194030409929596</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.1453567722099</v>
+        <v>24.6135278832258</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.14535677998981</v>
+        <v>33.1141868780507</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.14535675590187</v>
+        <v>19.11578283457539</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.14535677808516</v>
+        <v>36.1336941800751</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.14535678489406</v>
+        <v>42.74359291261234</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.14535677125167</v>
+        <v>42.05859699743891</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.14535679592657</v>
+        <v>51.87547006041352</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.14535680329973</v>
+        <v>58.54763999818867</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.14535676333214</v>
+        <v>18.62369420110627</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.14535679822191</v>
+        <v>43.79443605637002</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.14535680893092</v>
+        <v>53.36427750644651</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.14535665558746</v>
+        <v>-10.9836330432543</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.14535667706985</v>
+        <v>10.02318492478226</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.14535668377801</v>
+        <v>15.42773107332575</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.14535665876729</v>
+        <v>-8.454307746140611</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.14535668251697</v>
+        <v>6.948583344232848</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.14535668993312</v>
+        <v>12.08388197070899</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.14535666578427</v>
+        <v>1.22589955514837</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.14535668656975</v>
+        <v>13.35316883180545</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.14535669306029</v>
+        <v>17.11156648965667</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.14535668171399</v>
+        <v>15.11190895330433</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.14535670480124</v>
+        <v>21.24290824956536</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.14535671191329</v>
+        <v>25.74978391535225</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.14535667709258</v>
+        <v>-3.846833602573412</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.14535670978388</v>
+        <v>14.30578629959116</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.14535671999217</v>
+        <v>20.08977414266374</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.14535668965317</v>
+        <v>-8.691036367624665</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.14535671257459</v>
+        <v>15.03044360908373</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.14535671973464</v>
+        <v>22.52347550746281</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.1453566931628</v>
+        <v>-10.32383542322618</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.14535671850338</v>
+        <v>8.152790809697814</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.14535672641912</v>
+        <v>15.08507012006736</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.14535670135838</v>
+        <v>2.102642352076689</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.14535672353621</v>
+        <v>16.57889407652901</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.14535673046398</v>
+        <v>21.87716667623964</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.14535671757493</v>
+        <v>19.66091063133586</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.14535674229744</v>
+        <v>28.05287176879014</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.1453567498684</v>
+        <v>33.89693553622012</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.14535671147956</v>
+        <v>-0.4086177577167014</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.14535674636073</v>
+        <v>21.37526988614125</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.1453567572567</v>
+        <v>29.13843517936823</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.14535673610438</v>
+        <v>0.1001017911088518</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.14535675837959</v>
+        <v>25.43943371290935</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.14535676522427</v>
+        <v>34.08871109804009</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.14535674064581</v>
+        <v>-1.860560689619071</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.14535676527198</v>
+        <v>18.48901109547761</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.14535677283905</v>
+        <v>26.55762651431196</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.14535674936097</v>
+        <v>13.26345722888703</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.14535677091355</v>
+        <v>29.39148907469954</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.14535677753618</v>
+        <v>35.65338597002329</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.1453567643734</v>
+        <v>35.15891345969507</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.14535678835005</v>
+        <v>44.5434827588226</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.14535679552595</v>
+        <v>50.98286231493144</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.14535675686928</v>
+        <v>12.8663231021187</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.14535679076707</v>
+        <v>36.79896965060063</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.14535680118311</v>
+        <v>45.87618850381695</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.14535667544928</v>
+        <v>0.2252847718633184</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.14535669850467</v>
+        <v>23.2969070660025</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.14535670574865</v>
+        <v>29.99408316727193</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.14535668041688</v>
+        <v>3.553736126611454</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.14535670590558</v>
+        <v>20.5105427465989</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.14535671391409</v>
+        <v>27.09954220016683</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.14535668829039</v>
+        <v>14.79770994349592</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.14535671059784</v>
+        <v>28.18563200932901</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.14535671760681</v>
+        <v>33.12141849802752</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.14535670514121</v>
+        <v>29.85351748443529</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.14535672998943</v>
+        <v>36.60182123810979</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.14535673765164</v>
+        <v>42.1437368995987</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.14535669948188</v>
+        <v>9.344720652013379</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.14535673456693</v>
+        <v>29.30776813952603</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.14535674559061</v>
+        <v>36.72488943740727</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.14535671241227</v>
+        <v>1.781706890516293</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.14535673700288</v>
+        <v>27.70755669442791</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.14535674473285</v>
+        <v>36.5992595272568</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.1453567177437</v>
+        <v>0.4288336817566822</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.14535674492964</v>
+        <v>20.6350418843873</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.14535675347544</v>
+        <v>29.08028539248945</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.14535672685974</v>
+        <v>14.46482982364218</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.14535675065261</v>
+        <v>30.32704858642379</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.1453567581318</v>
+        <v>36.86512809021067</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.14535674399099</v>
+        <v>33.31825653379398</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.14535677059416</v>
+        <v>42.48833306673041</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.14535677875332</v>
+        <v>49.5040571997561</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.14535673673197</v>
+        <v>11.60934030928103</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.14535677415327</v>
+        <v>35.4083527527396</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.14535678591651</v>
+        <v>44.88240116382232</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.1453567587193</v>
+        <v>7.869530666960539</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.14535678256452</v>
+        <v>35.26744356245632</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.1453567899777</v>
+        <v>45.43819883068872</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.14535676497634</v>
+        <v>6.450881716154772</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.14535679133822</v>
+        <v>28.40288683576925</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.1453567995338</v>
+        <v>38.08609098321897</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.14535677456171</v>
+        <v>23.11049229232221</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.14535679763336</v>
+        <v>40.51364099273096</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.14535680480605</v>
+        <v>48.11133797031158</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.14535679041505</v>
+        <v>46.7506658645448</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.14535681616344</v>
+        <v>56.86373999106162</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.14535682392176</v>
+        <v>64.53994682504239</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.14535678175993</v>
+        <v>22.80921850998216</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.14535681804691</v>
+        <v>48.61070796924912</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.14535682932808</v>
+        <v>59.5280839396262</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.14535666284939</v>
+        <v>4.021893912019834</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.145356685002</v>
+        <v>26.63429876827654</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.14535669190197</v>
+        <v>32.5978063279214</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.14535666669489</v>
+        <v>7.752200654346471</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.14535669118552</v>
+        <v>24.71217868189972</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.14535669881372</v>
+        <v>30.48114495657478</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.14535667406867</v>
+        <v>18.54180806460251</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.14535669550262</v>
+        <v>31.97691083041724</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.14535670217875</v>
+        <v>36.24557909885314</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.14535669029421</v>
+        <v>33.69380433859933</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.14535671409704</v>
+        <v>40.42296706022111</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.14535672140842</v>
+        <v>45.26939167514251</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.14535668518259</v>
+        <v>13.0028575275887</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.1453567188938</v>
+        <v>32.93019014312792</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.14535672939399</v>
+        <v>39.41472115373234</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.1453566975688</v>
+        <v>4.706889624101464</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.1453567211948</v>
+        <v>30.06552873447457</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.1453567285601</v>
+        <v>38.18370045372845</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.14535670175075</v>
+        <v>4.041057089196041</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.14535672787028</v>
+        <v>24.11689629645807</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.14535673601291</v>
+        <v>31.73000870414187</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.14535671032647</v>
+        <v>17.60753882568915</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.14535673318602</v>
+        <v>33.42368796845304</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.14535674031237</v>
+        <v>39.27585374603299</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.14535672684705</v>
+        <v>36.52150092893275</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.14535675232663</v>
+        <v>45.53638044286906</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.14535676011113</v>
+        <v>51.77787449073344</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.1453567202325</v>
+        <v>14.75434558427921</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.14535675618589</v>
+        <v>38.36736313896308</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.14535676739419</v>
+        <v>46.88907270170248</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.14535674386051</v>
+        <v>11.0835300354202</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.14535676680813</v>
+        <v>37.99787321373195</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.14535677385075</v>
+        <v>47.32817455845031</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.14535674903824</v>
+        <v>10.09740553086865</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.14535677440778</v>
+        <v>31.99194879918593</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.1453567821937</v>
+        <v>40.79323185687558</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.14535675811684</v>
+        <v>26.28229514124937</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.14535678032</v>
+        <v>43.70381265291254</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.14535678713416</v>
+        <v>50.56635657394565</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.14535677341927</v>
+        <v>49.71754986435795</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.14535679811821</v>
+        <v>59.71394933328203</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.14535680549861</v>
+        <v>66.59240186754779</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.14535676541255</v>
+        <v>25.80699369227105</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>25.14535680033359</v>
+        <v>51.50529134326528</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.14535681105086</v>
+        <v>61.40385414341688</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.14535668252408</v>
+        <v>8.761542198758596</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.14535670556527</v>
+        <v>33.11682471492535</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.14535671276299</v>
+        <v>39.94847281859809</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.14535668792424</v>
+        <v>13.37011821676818</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.14535671339723</v>
+        <v>31.6103828000745</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.14535672135462</v>
+        <v>38.36623787157301</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.14535669586538</v>
+        <v>25.13981225862717</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.14535671815908</v>
+        <v>39.63339351317599</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.14535672512331</v>
+        <v>44.70757288542906</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.14535671250132</v>
+        <v>41.10005167861407</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.14535673732374</v>
+        <v>48.39260785113903</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.14535674493076</v>
+        <v>54.01422964527443</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.14535670656933</v>
+        <v>19.41821287562294</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.14535674163275</v>
+        <v>40.83642767759802</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.14535675258605</v>
+        <v>48.44053330888397</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.14535671943081</v>
+        <v>11.05832857536131</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.1453567440005</v>
+        <v>38.33680595924984</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.14535675167869</v>
+        <v>47.29581282468459</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.14535672519698</v>
+        <v>10.93393058844496</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.14535675235978</v>
+        <v>32.49881037672338</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.14535676084834</v>
+        <v>41.02745660604837</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.14535673437902</v>
+        <v>25.56469562343371</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.14535675815164</v>
+        <v>42.59735649466761</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.14535676558074</v>
+        <v>49.2035379022868</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.14535675129856</v>
+        <v>45.4219925197057</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.14535677786809</v>
+        <v>55.17142818555992</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.14535678596662</v>
+        <v>62.23952099234909</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.14535674377298</v>
+        <v>22.54648158682276</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.14535678116244</v>
+        <v>47.88816080920969</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.14535679284689</v>
+        <v>57.45793452236038</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.14535676474752</v>
+        <v>15.77003490585558</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.14535678856444</v>
+        <v>44.44065123961559</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.14535679593049</v>
+        <v>54.70138559412935</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.14535677138742</v>
+        <v>15.54900485533375</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.14535679771801</v>
+        <v>38.78055524322</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.14535680586148</v>
+        <v>48.5674284352983</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.1453567810242</v>
+        <v>32.76298047118776</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.14535680406847</v>
+        <v>51.26715544400301</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.14535681119555</v>
+        <v>58.95123329290209</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.1453567966842</v>
+        <v>57.46282731864291</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.14535682239252</v>
+        <v>68.12352047277687</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.14535683009639</v>
+        <v>75.85383020450843</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.14535678780178</v>
+        <v>32.43013546855531</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.14535682404569</v>
+        <v>59.68712124034829</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.14535683525514</v>
+        <v>70.72202366920506</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.14535668110348</v>
+        <v>5.883763697706716</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.14535670347886</v>
+        <v>28.75400010865905</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.14535671049964</v>
+        <v>35.36855222028598</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.14535668614535</v>
+        <v>9.873343409984226</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.14535671088226</v>
+        <v>26.76358929128637</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.14535671864402</v>
+        <v>33.28521739788313</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.14535669381804</v>
+        <v>20.89630915360465</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.14535671546754</v>
+        <v>34.25721807519813</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.14535672226055</v>
+        <v>39.15971680260657</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.14535671010569</v>
+        <v>35.55107853334255</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.14535673422995</v>
+        <v>42.26959035672895</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.14535674165318</v>
+        <v>47.78324463236282</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.14535670450294</v>
+        <v>15.26988644412445</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.14535673855316</v>
+        <v>35.13433885120331</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.14535674923719</v>
+        <v>42.48056780939746</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.14535671716486</v>
+        <v>9.031652112747276</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.14535674102667</v>
+        <v>34.70806584032339</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.14535674851854</v>
+        <v>43.4158877362914</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.14535672256207</v>
+        <v>8.558888809354629</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.14535674894229</v>
+        <v>28.63803300989353</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.14535675722486</v>
+        <v>36.91816646726727</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.14535673143946</v>
+        <v>22.32296531875114</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.14535675452715</v>
+        <v>38.1143362928992</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.14535676177598</v>
+        <v>44.53451341431257</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.14535674799318</v>
+        <v>40.7026089325563</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.14535677381838</v>
+        <v>49.78770743621503</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.14535678172387</v>
+        <v>56.73098923970652</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.14535674083045</v>
+        <v>19.21867582610271</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.14535677714267</v>
+        <v>42.84748898358152</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.14535678854358</v>
+        <v>52.14206867050818</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.14535676165043</v>
+        <v>13.73976980444951</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.14535678477891</v>
+        <v>40.78244398703525</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.14535679196987</v>
+        <v>50.75040527535467</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.14535676791839</v>
+        <v>13.1772567109015</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.14535679348789</v>
+        <v>34.89231208047433</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.1453568014378</v>
+        <v>44.38516655848948</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.14535677724158</v>
+        <v>29.44923599586512</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.14535679961975</v>
+        <v>46.68501326151772</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.14535680657743</v>
+        <v>54.14421618608172</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.14535679255792</v>
+        <v>52.5261857178526</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.145356817544</v>
+        <v>62.50920345372481</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.14535682506742</v>
+        <v>70.10186309679852</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.14535678405603</v>
+        <v>28.92165784669009</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.1453568192523</v>
+        <v>54.42750014575158</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.14535683019531</v>
+        <v>65.13812517448741</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.14535666689001</v>
+        <v>2.603816107240231</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.14535669007217</v>
+        <v>26.46786702808122</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.145356697302</v>
+        <v>32.98321187982691</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.14535667133977</v>
+        <v>6.460274323114739</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.14535669696861</v>
+        <v>24.38903392193867</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.14535670496149</v>
+        <v>30.77122998771922</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.14535667915482</v>
+        <v>17.94685252852788</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.14535670158493</v>
+        <v>32.16184509298973</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.14535670858022</v>
+        <v>36.91729596187694</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.14535669606073</v>
+        <v>33.95629921043972</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.14535672099254</v>
+        <v>41.06530375407828</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.14535672864894</v>
+        <v>46.33404832175532</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.14535669051669</v>
+        <v>12.19240638036216</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.14535672579466</v>
+        <v>33.24503875932255</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.14535673679681</v>
+        <v>40.4107159554332</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.14535670346553</v>
+        <v>4.325215739132563</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.14535672818671</v>
+        <v>31.05461565450554</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.14535673590399</v>
+        <v>39.76106168262001</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.14535670827611</v>
+        <v>3.536230200263059</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.14535673560639</v>
+        <v>24.7161170255806</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.14535674413817</v>
+        <v>32.95565783836399</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.14535671734382</v>
+        <v>17.9213210694837</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.14535674126301</v>
+        <v>34.6210132258603</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.14535674872993</v>
+        <v>40.97299613574422</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.14535673454924</v>
+        <v>37.79122732308871</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.14535676123597</v>
+        <v>47.28381114059665</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.14535676938927</v>
+        <v>54.00143005358854</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.14535672742247</v>
+        <v>14.88950529294093</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.14535676504246</v>
+        <v>39.78508944128313</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.1453567767864</v>
+        <v>49.00555576269225</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.14535675091258</v>
+        <v>9.970648888154912</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.14535677490652</v>
+        <v>38.21558982314316</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.145356782295</v>
+        <v>48.21082920271649</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.14535675671302</v>
+        <v>8.924112462746676</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.14535678323931</v>
+        <v>31.89303832226521</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.14535679140759</v>
+        <v>41.38925600860782</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.14535676628066</v>
+        <v>25.95215185223369</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.1453567894962</v>
+        <v>44.2326598347155</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.145356796645</v>
+        <v>51.65569194671039</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.14535678221481</v>
+        <v>50.59339548540588</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.14535680806724</v>
+        <v>61.06382154309703</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.14535681580679</v>
+        <v>68.45929443687099</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.14535677366382</v>
+        <v>25.52651641085268</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.14535681017711</v>
+        <v>52.47575996744239</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.1453568214207</v>
+        <v>63.15533807325365</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.14535667429995</v>
+        <v>-2.077710714518663</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.14535669644343</v>
+        <v>19.89799335673925</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.14535670340968</v>
+        <v>26.36951136244394</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.14535667888747</v>
+        <v>0.9450815610024037</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.14535670336801</v>
+        <v>17.07388834855082</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.14535671106949</v>
+        <v>23.43599397959616</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.14535668640998</v>
+        <v>11.61365848455796</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.1453567078351</v>
+        <v>24.34046380574435</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.14535671457536</v>
+        <v>29.10651642428059</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.14535670265453</v>
+        <v>26.02575458076296</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.14535672652241</v>
+        <v>32.4802810267329</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.14535673389082</v>
+        <v>37.76225330493368</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.14535669733726</v>
+        <v>6.245883964271176</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.14535673103458</v>
+        <v>25.23879344863705</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.14535674163563</v>
+        <v>32.40341409332294</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.14535670973536</v>
+        <v>0.6756768567944711</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.14535673335522</v>
+        <v>25.43228918723135</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.14535674078941</v>
+        <v>34.08706913525826</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.14535671466711</v>
+        <v>-0.7330115411693541</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.14535674077984</v>
+        <v>18.56608277395065</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.14535674899864</v>
+        <v>26.78857186487722</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.14535672338375</v>
+        <v>12.66439001725306</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.14535674623735</v>
+        <v>27.80786089657241</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.14535675343037</v>
+        <v>34.17981926096579</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.14535673989963</v>
+        <v>30.70926058179482</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.14535676545455</v>
+        <v>39.49892712871781</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.14535677330172</v>
+        <v>46.23676598114071</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.14535673304874</v>
+        <v>9.708740568586851</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.14535676899277</v>
+        <v>32.43799349143111</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.14535678030591</v>
+        <v>41.66833437216471</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.14535675453876</v>
+        <v>6.365933398172274</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.145356777447</v>
+        <v>32.56009848426282</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.14535678457699</v>
+        <v>42.44069491778789</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.14535676037291</v>
+        <v>4.845063408257751</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.14535678569892</v>
+        <v>25.84317798098657</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.14535679358142</v>
+        <v>35.25714842553555</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.14535676954593</v>
+        <v>20.74656759407779</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.145356791711</v>
+        <v>37.39081260627844</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.14535679860968</v>
+        <v>44.78142014481793</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.14535678482486</v>
+        <v>43.34527695718094</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.14535680956311</v>
+        <v>53.0526864308536</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.14535681702519</v>
+        <v>60.42824782005692</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>25.1453567766184</v>
+        <v>20.21379191471243</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>25.14535681147951</v>
+        <v>44.89264710472071</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>25.14535682232973</v>
+        <v>55.51196798288061</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.14535668102566</v>
+        <v>3.490698138504136</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.14535670327949</v>
+        <v>26.05933585925899</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.14535671027184</v>
+        <v>32.68989133258844</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.14535668602656</v>
+        <v>7.175853318011367</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.14535671062908</v>
+        <v>23.77914995348974</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.14535671835942</v>
+        <v>30.3205307175733</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.14535669365694</v>
+        <v>18.08028451755566</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.14535671518883</v>
+        <v>31.19693306924531</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.14535672195434</v>
+        <v>36.11701578532421</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.14535670988327</v>
+        <v>32.61149017498278</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.14535673388009</v>
+        <v>39.21593055446153</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.14535674127369</v>
+        <v>44.74306882856223</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.1453567043335</v>
+        <v>12.6378426572565</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.14535673819874</v>
+        <v>32.1785873440915</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.14535674883951</v>
+        <v>39.54670191603971</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.14535671684225</v>
+        <v>6.010880970994762</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.14535674057499</v>
+        <v>31.35824736447108</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.14535674803696</v>
+        <v>40.1144901025561</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.14535672219451</v>
+        <v>5.230577618040947</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.14535674843203</v>
+        <v>24.99594083241927</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.14535675668155</v>
+        <v>33.33183231048785</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.14535673102151</v>
+        <v>18.8373636873004</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.14535675398433</v>
+        <v>34.36180424590233</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.14535676120422</v>
+        <v>40.83129773780701</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.14535674751174</v>
+        <v>37.06095321112603</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.14535677320118</v>
+        <v>46.02086406367171</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.14535678107554</v>
+        <v>52.99400804690269</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.14535674041153</v>
+        <v>15.8870256804765</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.14535677652734</v>
+        <v>39.16034204882109</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.14535678788275</v>
+        <v>48.5179359511754</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.14535676110087</v>
+        <v>10.90569736045132</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.14535678410461</v>
+        <v>37.62794163827674</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.14535679126628</v>
+        <v>47.6364062963552</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.14535676732109</v>
+        <v>10.06062655171502</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.14535679275267</v>
+        <v>31.46854958363252</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.1453568006702</v>
+        <v>41.01065973656109</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.14535677659062</v>
+        <v>26.16885402478745</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.14535679884808</v>
+        <v>43.14361930356507</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.14535680577742</v>
+        <v>50.64689329158134</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.14535679184819</v>
+        <v>49.06925248725698</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.14535681670293</v>
+        <v>58.9251161548237</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.14535682419609</v>
+        <v>66.54700181231929</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.14535678341436</v>
+        <v>25.76567440244543</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.14535681842079</v>
+        <v>50.9227836522852</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.14535682931922</v>
+        <v>61.68942948981363</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.14535667570468</v>
+        <v>8.448666503669413</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.14535669868996</v>
+        <v>31.73500409077961</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.14535670589512</v>
+        <v>38.20858660715575</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.14535668070742</v>
+        <v>12.82363166238537</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.1453567061186</v>
+        <v>30.17022556704574</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.14535671408421</v>
+        <v>36.52572818159476</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.14535668853298</v>
+        <v>24.10102044315568</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.14535671077259</v>
+        <v>37.87760582804799</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.14535671774401</v>
+        <v>42.6334893399477</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.14535670524947</v>
+        <v>39.20353512952629</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.14535673000143</v>
+        <v>46.07312843996563</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.14535673762049</v>
+        <v>51.30479932378277</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.14535669953584</v>
+        <v>18.19207911621703</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.14535673451418</v>
+        <v>38.57231761087323</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>25.1453567454788</v>
+        <v>45.75074728780982</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.14535671249307</v>
+        <v>10.33392546888046</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.14535673701103</v>
+        <v>36.45202751628857</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.14535674469504</v>
+        <v>44.96986119353711</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.14535671785879</v>
+        <v>10.13948791682553</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.14535674496442</v>
+        <v>30.71282720317374</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.14535675345941</v>
+        <v>38.76298142839592</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.14535672692711</v>
+        <v>24.21507511732085</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>25.14535675064968</v>
+        <v>40.45247985999633</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.14535675808441</v>
+        <v>46.67486954674781</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.14535674393141</v>
+        <v>43.05964485795207</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.14535677043201</v>
+        <v>52.28693084412753</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.1453567785398</v>
+        <v>58.88509826659966</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.14535673663002</v>
+        <v>20.91192617312604</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.14535677394077</v>
+        <v>45.09748843109695</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.14535678563407</v>
+        <v>54.14992621347703</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.14535675872996</v>
+        <v>15.60447042542316</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.14535678251501</v>
+        <v>43.17938474133878</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.14535678987558</v>
+        <v>52.91000111783316</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.14535676501683</v>
+        <v>15.21825596819285</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.14535679131218</v>
+        <v>37.51830449967039</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.1453567994496</v>
+        <v>46.74632845034387</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.14535677456222</v>
+        <v>31.87343849174617</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.14535679757565</v>
+        <v>49.63214759909351</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.14535680469744</v>
+        <v>56.86041412758962</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.14535679029919</v>
+        <v>55.35590531641477</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.14535681595771</v>
+        <v>65.51156685853535</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.14535682365916</v>
+        <v>72.73557860132401</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.14535678160727</v>
+        <v>31.04940986549317</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.14535681780267</v>
+        <v>57.21676594174879</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>25.14535682900379</v>
+        <v>67.63843208844189</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.14535667064309</v>
+        <v>3.122691799404318</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.14535669385067</v>
+        <v>27.09872028713202</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>25.14535670108158</v>
+        <v>33.66116199964311</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.14535667536296</v>
+        <v>7.074635024660839</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.14535670101991</v>
+        <v>25.10789466981095</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.14535670901398</v>
+        <v>31.54824883255629</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.1453566832272</v>
+        <v>18.59712518220788</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.14535670568191</v>
+        <v>32.90589972026721</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.14535671267824</v>
+        <v>37.71278262490917</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.14535670010531</v>
+        <v>34.64501132074601</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.14535672507317</v>
+        <v>41.81498794346555</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.14535673272667</v>
+        <v>47.12581273613361</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.14535669444536</v>
+        <v>12.85417544343308</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>25.14535672976201</v>
+        <v>34.02965991402219</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>25.1453567407658</v>
+        <v>41.25848116803513</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.14535670730801</v>
+        <v>4.908968351557661</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.14535673205528</v>
+        <v>31.74193572828487</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.14535673977247</v>
+        <v>40.49301663848999</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>25.14535671238862</v>
+        <v>4.212993395766379</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.14535673974776</v>
+        <v>25.48989666734265</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.14535674827943</v>
+        <v>33.78411093800911</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.1453567215044</v>
+        <v>18.61599685686405</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.14535674544885</v>
+        <v>35.40239392970759</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.14535675291568</v>
+        <v>41.80378130053084</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.14535673867988</v>
+        <v>38.50357099378336</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.14535676540455</v>
+        <v>48.05805456466995</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.1453567735542</v>
+        <v>54.81959255921873</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.14535673143407</v>
+        <v>15.57836971378262</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>25.14535676909377</v>
+        <v>40.58820685281225</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.14535678083756</v>
+        <v>49.86754185692293</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.14535675426383</v>
+        <v>9.952037988364493</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.14535677827513</v>
+        <v>38.25485458020364</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.14535678566735</v>
+        <v>48.31007928473757</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.14535676030127</v>
+        <v>8.990176285866614</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.14535678684677</v>
+        <v>32.0093223956421</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.14535679501917</v>
+        <v>41.5761944850059</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.14535676990522</v>
+        <v>26.00526662010606</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.14535679313758</v>
+        <v>44.33144813709164</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.14535680028998</v>
+        <v>51.81790362084332</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.14535678581092</v>
+        <v>50.65581257134728</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.14535681169198</v>
+        <v>61.17230001155225</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.14535681943225</v>
+        <v>68.61891118984909</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>25.14535677715762</v>
+        <v>25.59335518312906</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>25.14535681369735</v>
+        <v>52.6032493573439</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>25.14535682494662</v>
+        <v>63.36052140032632</v>
       </c>
     </row>
   </sheetData>
